--- a/attendance-files/FA-II/FA-II (C) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (C) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="172">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -541,7 +541,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd\,\ d\ mmmm\,\ yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -586,8 +586,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -610,6 +614,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F1"/>
         <bgColor rgb="FFDCE6F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -902,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -980,11 +996,11 @@
     <xf borderId="20" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="21" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="22" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -999,13 +1015,25 @@
     <xf borderId="25" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="21" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="21" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="21" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="21" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="21" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
@@ -1628,24 +1656,32 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
+      <c r="H7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="O7" s="31"/>
       <c r="P7" s="31"/>
       <c r="Q7" s="31"/>
@@ -1676,41 +1712,49 @@
       </c>
       <c r="E8" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="32">
@@ -1728,41 +1772,49 @@
       </c>
       <c r="E9" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="32">
@@ -1780,41 +1832,49 @@
       </c>
       <c r="E10" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="32">
@@ -1832,41 +1892,49 @@
       </c>
       <c r="E11" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="32">
@@ -1888,37 +1956,45 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="32">
@@ -1936,41 +2012,49 @@
       </c>
       <c r="E13" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="32">
@@ -1992,37 +2076,45 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="32">
@@ -2044,37 +2136,45 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="32">
@@ -2092,41 +2192,49 @@
       </c>
       <c r="E16" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="32">
@@ -2148,37 +2256,45 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="32">
@@ -2196,41 +2312,49 @@
       </c>
       <c r="E18" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="32">
@@ -2248,41 +2372,49 @@
       </c>
       <c r="E19" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="32">
@@ -2304,37 +2436,45 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="32">
@@ -2356,37 +2496,45 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="32">
@@ -2408,37 +2556,45 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="32">
@@ -2456,41 +2612,49 @@
       </c>
       <c r="E23" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="32">
@@ -2508,41 +2672,49 @@
       </c>
       <c r="E24" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="32">
@@ -2560,41 +2732,49 @@
       </c>
       <c r="E25" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="32">
@@ -2616,37 +2796,45 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="32">
@@ -2664,41 +2852,49 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="32">
@@ -2716,41 +2912,49 @@
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
+        <v>3</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="32">
@@ -2768,41 +2972,49 @@
       </c>
       <c r="E29" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
+        <v>4</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="32">
@@ -2820,41 +3032,49 @@
       </c>
       <c r="E30" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G30" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
+        <v>4</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="32">
@@ -2872,41 +3092,49 @@
       </c>
       <c r="E31" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G31" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="37"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="32">
@@ -2924,41 +3152,49 @@
       </c>
       <c r="E32" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="32">
@@ -2976,41 +3212,49 @@
       </c>
       <c r="E33" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G33" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="32">
@@ -3028,41 +3272,49 @@
       </c>
       <c r="E34" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
+        <v>5</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="37"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="32">
@@ -3080,41 +3332,49 @@
       </c>
       <c r="E35" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
+      <c r="AA35" s="37"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="32">
@@ -3136,37 +3396,45 @@
       </c>
       <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="32">
@@ -3184,41 +3452,49 @@
       </c>
       <c r="E37" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="32">
@@ -3240,37 +3516,45 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G38" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="38"/>
-      <c r="Z38" s="38"/>
-      <c r="AA38" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="32">
@@ -3292,37 +3576,45 @@
       </c>
       <c r="F39" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G39" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="38"/>
-      <c r="Z39" s="38"/>
-      <c r="AA39" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="37"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="32">
@@ -3344,37 +3636,45 @@
       </c>
       <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G40" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="38"/>
+        <v>5</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
+      <c r="AA40" s="37"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="32">
@@ -3392,41 +3692,49 @@
       </c>
       <c r="E41" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G41" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="38"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="38"/>
-      <c r="Z41" s="38"/>
-      <c r="AA41" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="32">
@@ -3448,37 +3756,45 @@
       </c>
       <c r="F42" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G42" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="38"/>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="38"/>
-      <c r="Z42" s="38"/>
-      <c r="AA42" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="37"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="32">
@@ -3496,41 +3812,49 @@
       </c>
       <c r="E43" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G43" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
-      <c r="X43" s="38"/>
-      <c r="Y43" s="38"/>
-      <c r="Z43" s="38"/>
-      <c r="AA43" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="37"/>
+      <c r="AA43" s="37"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="32">
@@ -3552,37 +3876,45 @@
       </c>
       <c r="F44" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="38"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="38"/>
-      <c r="Z44" s="38"/>
-      <c r="AA44" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37"/>
+      <c r="AA44" s="37"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="32">
@@ -3604,37 +3936,45 @@
       </c>
       <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G45" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="38"/>
-      <c r="X45" s="38"/>
-      <c r="Y45" s="38"/>
-      <c r="Z45" s="38"/>
-      <c r="AA45" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
+      <c r="AA45" s="37"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="32">
@@ -3652,41 +3992,49 @@
       </c>
       <c r="E46" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G46" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="38"/>
-      <c r="W46" s="38"/>
-      <c r="X46" s="38"/>
-      <c r="Y46" s="38"/>
-      <c r="Z46" s="38"/>
-      <c r="AA46" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
+      <c r="AA46" s="37"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="32">
@@ -3704,41 +4052,49 @@
       </c>
       <c r="E47" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G47" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="38"/>
-      <c r="X47" s="38"/>
-      <c r="Y47" s="38"/>
-      <c r="Z47" s="38"/>
-      <c r="AA47" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="37"/>
+      <c r="Z47" s="37"/>
+      <c r="AA47" s="37"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="32">
@@ -3756,41 +4112,49 @@
       </c>
       <c r="E48" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G48" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="38"/>
-      <c r="AA48" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="37"/>
+      <c r="Y48" s="37"/>
+      <c r="Z48" s="37"/>
+      <c r="AA48" s="37"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="32">
@@ -3812,37 +4176,45 @@
       </c>
       <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G49" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I49" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="38"/>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="38"/>
-      <c r="Z49" s="38"/>
-      <c r="AA49" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
+      <c r="Y49" s="37"/>
+      <c r="Z49" s="37"/>
+      <c r="AA49" s="37"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="32">
@@ -3864,37 +4236,45 @@
       </c>
       <c r="F50" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G50" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="38"/>
-      <c r="W50" s="38"/>
-      <c r="X50" s="38"/>
-      <c r="Y50" s="38"/>
-      <c r="Z50" s="38"/>
-      <c r="AA50" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="37"/>
+      <c r="AA50" s="37"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="32">
@@ -3912,41 +4292,49 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G51" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="38"/>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="38"/>
-      <c r="R51" s="38"/>
-      <c r="S51" s="38"/>
-      <c r="T51" s="38"/>
-      <c r="U51" s="38"/>
-      <c r="V51" s="38"/>
-      <c r="W51" s="38"/>
-      <c r="X51" s="38"/>
-      <c r="Y51" s="38"/>
-      <c r="Z51" s="38"/>
-      <c r="AA51" s="38"/>
+        <v>5</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
+      <c r="Y51" s="37"/>
+      <c r="Z51" s="37"/>
+      <c r="AA51" s="37"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="32">
@@ -3964,41 +4352,49 @@
       </c>
       <c r="E52" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J52" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="38"/>
-      <c r="T52" s="38"/>
-      <c r="U52" s="38"/>
-      <c r="V52" s="38"/>
-      <c r="W52" s="38"/>
-      <c r="X52" s="38"/>
-      <c r="Y52" s="38"/>
-      <c r="Z52" s="38"/>
-      <c r="AA52" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
+      <c r="Y52" s="37"/>
+      <c r="Z52" s="37"/>
+      <c r="AA52" s="37"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="32">
@@ -4020,37 +4416,45 @@
       </c>
       <c r="F53" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J53" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="38"/>
-      <c r="T53" s="38"/>
-      <c r="U53" s="38"/>
-      <c r="V53" s="38"/>
-      <c r="W53" s="38"/>
-      <c r="X53" s="38"/>
-      <c r="Y53" s="38"/>
-      <c r="Z53" s="38"/>
-      <c r="AA53" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="37"/>
+      <c r="AA53" s="37"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="32">
@@ -4068,41 +4472,49 @@
       </c>
       <c r="E54" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G54" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J54" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="38"/>
-      <c r="S54" s="38"/>
-      <c r="T54" s="38"/>
-      <c r="U54" s="38"/>
-      <c r="V54" s="38"/>
-      <c r="W54" s="38"/>
-      <c r="X54" s="38"/>
-      <c r="Y54" s="38"/>
-      <c r="Z54" s="38"/>
-      <c r="AA54" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="37"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="37"/>
+      <c r="Y54" s="37"/>
+      <c r="Z54" s="37"/>
+      <c r="AA54" s="37"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="32">
@@ -4120,41 +4532,49 @@
       </c>
       <c r="E55" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G55" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I55" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J55" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="38"/>
-      <c r="R55" s="38"/>
-      <c r="S55" s="38"/>
-      <c r="T55" s="38"/>
-      <c r="U55" s="38"/>
-      <c r="V55" s="38"/>
-      <c r="W55" s="38"/>
-      <c r="X55" s="38"/>
-      <c r="Y55" s="38"/>
-      <c r="Z55" s="38"/>
-      <c r="AA55" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="37"/>
+      <c r="Y55" s="37"/>
+      <c r="Z55" s="37"/>
+      <c r="AA55" s="37"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="32">
@@ -4176,37 +4596,45 @@
       </c>
       <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J56" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="38"/>
-      <c r="R56" s="38"/>
-      <c r="S56" s="38"/>
-      <c r="T56" s="38"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="38"/>
-      <c r="W56" s="38"/>
-      <c r="X56" s="38"/>
-      <c r="Y56" s="38"/>
-      <c r="Z56" s="38"/>
-      <c r="AA56" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="37"/>
+      <c r="Y56" s="37"/>
+      <c r="Z56" s="37"/>
+      <c r="AA56" s="37"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="32">
@@ -4228,37 +4656,45 @@
       </c>
       <c r="F57" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G57" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="38"/>
-      <c r="P57" s="38"/>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="38"/>
-      <c r="S57" s="38"/>
-      <c r="T57" s="38"/>
-      <c r="U57" s="38"/>
-      <c r="V57" s="38"/>
-      <c r="W57" s="38"/>
-      <c r="X57" s="38"/>
-      <c r="Y57" s="38"/>
-      <c r="Z57" s="38"/>
-      <c r="AA57" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="37"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="37"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="37"/>
+      <c r="Y57" s="37"/>
+      <c r="Z57" s="37"/>
+      <c r="AA57" s="37"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="32">
@@ -4276,41 +4712,49 @@
       </c>
       <c r="E58" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G58" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="38"/>
-      <c r="P58" s="38"/>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="38"/>
-      <c r="S58" s="38"/>
-      <c r="T58" s="38"/>
-      <c r="U58" s="38"/>
-      <c r="V58" s="38"/>
-      <c r="W58" s="38"/>
-      <c r="X58" s="38"/>
-      <c r="Y58" s="38"/>
-      <c r="Z58" s="38"/>
-      <c r="AA58" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="37"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="37"/>
+      <c r="Y58" s="37"/>
+      <c r="Z58" s="37"/>
+      <c r="AA58" s="37"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="32">
@@ -4328,41 +4772,49 @@
       </c>
       <c r="E59" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F59" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G59" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J59" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="38"/>
-      <c r="S59" s="38"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="38"/>
-      <c r="W59" s="38"/>
-      <c r="X59" s="38"/>
-      <c r="Y59" s="38"/>
-      <c r="Z59" s="38"/>
-      <c r="AA59" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="37"/>
+      <c r="Z59" s="37"/>
+      <c r="AA59" s="37"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="32">
@@ -4380,41 +4832,49 @@
       </c>
       <c r="E60" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H60" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I60" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J60" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="38"/>
-      <c r="P60" s="38"/>
-      <c r="Q60" s="38"/>
-      <c r="R60" s="38"/>
-      <c r="S60" s="38"/>
-      <c r="T60" s="38"/>
-      <c r="U60" s="38"/>
-      <c r="V60" s="38"/>
-      <c r="W60" s="38"/>
-      <c r="X60" s="38"/>
-      <c r="Y60" s="38"/>
-      <c r="Z60" s="38"/>
-      <c r="AA60" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+      <c r="Y60" s="37"/>
+      <c r="Z60" s="37"/>
+      <c r="AA60" s="37"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="32">
@@ -4432,41 +4892,49 @@
       </c>
       <c r="E61" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G61" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J61" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="38"/>
-      <c r="S61" s="38"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="38"/>
-      <c r="W61" s="38"/>
-      <c r="X61" s="38"/>
-      <c r="Y61" s="38"/>
-      <c r="Z61" s="38"/>
-      <c r="AA61" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="37"/>
+      <c r="Y61" s="37"/>
+      <c r="Z61" s="37"/>
+      <c r="AA61" s="37"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="32">
@@ -4488,37 +4956,45 @@
       </c>
       <c r="F62" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G62" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J62" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="38"/>
-      <c r="O62" s="38"/>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="38"/>
-      <c r="R62" s="38"/>
-      <c r="S62" s="38"/>
-      <c r="T62" s="38"/>
-      <c r="U62" s="38"/>
-      <c r="V62" s="38"/>
-      <c r="W62" s="38"/>
-      <c r="X62" s="38"/>
-      <c r="Y62" s="38"/>
-      <c r="Z62" s="38"/>
-      <c r="AA62" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="37"/>
+      <c r="W62" s="37"/>
+      <c r="X62" s="37"/>
+      <c r="Y62" s="37"/>
+      <c r="Z62" s="37"/>
+      <c r="AA62" s="37"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="32">
@@ -4536,41 +5012,49 @@
       </c>
       <c r="E63" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G63" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H63" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I63" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J63" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
-      <c r="Q63" s="38"/>
-      <c r="R63" s="38"/>
-      <c r="S63" s="38"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="38"/>
-      <c r="V63" s="38"/>
-      <c r="W63" s="38"/>
-      <c r="X63" s="38"/>
-      <c r="Y63" s="38"/>
-      <c r="Z63" s="38"/>
-      <c r="AA63" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="37"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="37"/>
+      <c r="X63" s="37"/>
+      <c r="Y63" s="37"/>
+      <c r="Z63" s="37"/>
+      <c r="AA63" s="37"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="32">
@@ -4588,41 +5072,49 @@
       </c>
       <c r="E64" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F64" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G64" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H64" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I64" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J64" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="38"/>
-      <c r="P64" s="38"/>
-      <c r="Q64" s="38"/>
-      <c r="R64" s="38"/>
-      <c r="S64" s="38"/>
-      <c r="T64" s="38"/>
-      <c r="U64" s="38"/>
-      <c r="V64" s="38"/>
-      <c r="W64" s="38"/>
-      <c r="X64" s="38"/>
-      <c r="Y64" s="38"/>
-      <c r="Z64" s="38"/>
-      <c r="AA64" s="38"/>
+      <c r="G64" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J64" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M64" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N64" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="37"/>
+      <c r="T64" s="37"/>
+      <c r="U64" s="37"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="37"/>
+      <c r="X64" s="37"/>
+      <c r="Y64" s="37"/>
+      <c r="Z64" s="37"/>
+      <c r="AA64" s="37"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="32">
@@ -4640,41 +5132,49 @@
       </c>
       <c r="E65" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G65" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I65" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J65" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="38"/>
-      <c r="U65" s="38"/>
-      <c r="V65" s="38"/>
-      <c r="W65" s="38"/>
-      <c r="X65" s="38"/>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="38"/>
-      <c r="AA65" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="37"/>
+      <c r="T65" s="37"/>
+      <c r="U65" s="37"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="37"/>
+      <c r="X65" s="37"/>
+      <c r="Y65" s="37"/>
+      <c r="Z65" s="37"/>
+      <c r="AA65" s="37"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="32">
@@ -4692,41 +5192,49 @@
       </c>
       <c r="E66" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F66" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G66" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I66" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J66" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K66" s="38"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="38"/>
-      <c r="S66" s="38"/>
-      <c r="T66" s="38"/>
-      <c r="U66" s="38"/>
-      <c r="V66" s="38"/>
-      <c r="W66" s="38"/>
-      <c r="X66" s="38"/>
-      <c r="Y66" s="38"/>
-      <c r="Z66" s="38"/>
-      <c r="AA66" s="38"/>
+        <v>5</v>
+      </c>
+      <c r="G66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M66" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="37"/>
+      <c r="T66" s="37"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="37"/>
+      <c r="Y66" s="37"/>
+      <c r="Z66" s="37"/>
+      <c r="AA66" s="37"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="32">
@@ -4744,41 +5252,49 @@
       </c>
       <c r="E67" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G67" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H67" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J67" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="38"/>
-      <c r="P67" s="38"/>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="38"/>
-      <c r="S67" s="38"/>
-      <c r="T67" s="38"/>
-      <c r="U67" s="38"/>
-      <c r="V67" s="38"/>
-      <c r="W67" s="38"/>
-      <c r="X67" s="38"/>
-      <c r="Y67" s="38"/>
-      <c r="Z67" s="38"/>
-      <c r="AA67" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+      <c r="Y67" s="37"/>
+      <c r="Z67" s="37"/>
+      <c r="AA67" s="37"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="32">
@@ -4796,41 +5312,49 @@
       </c>
       <c r="E68" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G68" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I68" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J68" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="38"/>
-      <c r="S68" s="38"/>
-      <c r="T68" s="38"/>
-      <c r="U68" s="38"/>
-      <c r="V68" s="38"/>
-      <c r="W68" s="38"/>
-      <c r="X68" s="38"/>
-      <c r="Y68" s="38"/>
-      <c r="Z68" s="38"/>
-      <c r="AA68" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="G68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="37"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="37"/>
+      <c r="Y68" s="37"/>
+      <c r="Z68" s="37"/>
+      <c r="AA68" s="37"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="32">
@@ -4848,41 +5372,49 @@
       </c>
       <c r="E69" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G69" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I69" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J69" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="38"/>
-      <c r="S69" s="38"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38"/>
-      <c r="V69" s="38"/>
-      <c r="W69" s="38"/>
-      <c r="X69" s="38"/>
-      <c r="Y69" s="38"/>
-      <c r="Z69" s="38"/>
-      <c r="AA69" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="37"/>
+      <c r="U69" s="37"/>
+      <c r="V69" s="37"/>
+      <c r="W69" s="37"/>
+      <c r="X69" s="37"/>
+      <c r="Y69" s="37"/>
+      <c r="Z69" s="37"/>
+      <c r="AA69" s="37"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="32">
@@ -4904,37 +5436,45 @@
       </c>
       <c r="F70" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G70" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I70" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J70" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
-      <c r="Q70" s="38"/>
-      <c r="R70" s="38"/>
-      <c r="S70" s="38"/>
-      <c r="T70" s="38"/>
-      <c r="U70" s="38"/>
-      <c r="V70" s="38"/>
-      <c r="W70" s="38"/>
-      <c r="X70" s="38"/>
-      <c r="Y70" s="38"/>
-      <c r="Z70" s="38"/>
-      <c r="AA70" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="G70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="37"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="37"/>
+      <c r="Y70" s="37"/>
+      <c r="Z70" s="37"/>
+      <c r="AA70" s="37"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="32">
@@ -4952,41 +5492,49 @@
       </c>
       <c r="E71" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G71" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I71" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J71" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K71" s="38"/>
-      <c r="L71" s="38"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="38"/>
-      <c r="O71" s="38"/>
-      <c r="P71" s="38"/>
-      <c r="Q71" s="38"/>
-      <c r="R71" s="38"/>
-      <c r="S71" s="38"/>
-      <c r="T71" s="38"/>
-      <c r="U71" s="38"/>
-      <c r="V71" s="38"/>
-      <c r="W71" s="38"/>
-      <c r="X71" s="38"/>
-      <c r="Y71" s="38"/>
-      <c r="Z71" s="38"/>
-      <c r="AA71" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71" s="37"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="37"/>
+      <c r="R71" s="37"/>
+      <c r="S71" s="37"/>
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="37"/>
+      <c r="X71" s="37"/>
+      <c r="Y71" s="37"/>
+      <c r="Z71" s="37"/>
+      <c r="AA71" s="37"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="32">
@@ -5004,41 +5552,49 @@
       </c>
       <c r="E72" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F72" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G72" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I72" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J72" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
-      <c r="Q72" s="38"/>
-      <c r="R72" s="38"/>
-      <c r="S72" s="38"/>
-      <c r="T72" s="38"/>
-      <c r="U72" s="38"/>
-      <c r="V72" s="38"/>
-      <c r="W72" s="38"/>
-      <c r="X72" s="38"/>
-      <c r="Y72" s="38"/>
-      <c r="Z72" s="38"/>
-      <c r="AA72" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="G72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N72" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="37"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
+      <c r="V72" s="37"/>
+      <c r="W72" s="37"/>
+      <c r="X72" s="37"/>
+      <c r="Y72" s="37"/>
+      <c r="Z72" s="37"/>
+      <c r="AA72" s="37"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="32">
@@ -5060,37 +5616,45 @@
       </c>
       <c r="F73" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G73" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I73" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J73" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K73" s="38"/>
-      <c r="L73" s="38"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="38"/>
-      <c r="O73" s="38"/>
-      <c r="P73" s="38"/>
-      <c r="Q73" s="38"/>
-      <c r="R73" s="38"/>
-      <c r="S73" s="38"/>
-      <c r="T73" s="38"/>
-      <c r="U73" s="38"/>
-      <c r="V73" s="38"/>
-      <c r="W73" s="38"/>
-      <c r="X73" s="38"/>
-      <c r="Y73" s="38"/>
-      <c r="Z73" s="38"/>
-      <c r="AA73" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="37"/>
+      <c r="T73" s="37"/>
+      <c r="U73" s="37"/>
+      <c r="V73" s="37"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="37"/>
+      <c r="Y73" s="37"/>
+      <c r="Z73" s="37"/>
+      <c r="AA73" s="37"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="32">
@@ -5108,41 +5672,49 @@
       </c>
       <c r="E74" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G74" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I74" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J74" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K74" s="38"/>
-      <c r="L74" s="38"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="38"/>
-      <c r="O74" s="38"/>
-      <c r="P74" s="38"/>
-      <c r="Q74" s="38"/>
-      <c r="R74" s="38"/>
-      <c r="S74" s="38"/>
-      <c r="T74" s="38"/>
-      <c r="U74" s="38"/>
-      <c r="V74" s="38"/>
-      <c r="W74" s="38"/>
-      <c r="X74" s="38"/>
-      <c r="Y74" s="38"/>
-      <c r="Z74" s="38"/>
-      <c r="AA74" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N74" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="37"/>
+      <c r="S74" s="37"/>
+      <c r="T74" s="37"/>
+      <c r="U74" s="37"/>
+      <c r="V74" s="37"/>
+      <c r="W74" s="37"/>
+      <c r="X74" s="37"/>
+      <c r="Y74" s="37"/>
+      <c r="Z74" s="37"/>
+      <c r="AA74" s="37"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="32">
@@ -5160,41 +5732,49 @@
       </c>
       <c r="E75" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G75" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H75" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I75" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J75" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K75" s="38"/>
-      <c r="L75" s="38"/>
-      <c r="M75" s="38"/>
-      <c r="N75" s="38"/>
-      <c r="O75" s="38"/>
-      <c r="P75" s="38"/>
-      <c r="Q75" s="38"/>
-      <c r="R75" s="38"/>
-      <c r="S75" s="38"/>
-      <c r="T75" s="38"/>
-      <c r="U75" s="38"/>
-      <c r="V75" s="38"/>
-      <c r="W75" s="38"/>
-      <c r="X75" s="38"/>
-      <c r="Y75" s="38"/>
-      <c r="Z75" s="38"/>
-      <c r="AA75" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N75" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="37"/>
+      <c r="R75" s="37"/>
+      <c r="S75" s="37"/>
+      <c r="T75" s="37"/>
+      <c r="U75" s="37"/>
+      <c r="V75" s="37"/>
+      <c r="W75" s="37"/>
+      <c r="X75" s="37"/>
+      <c r="Y75" s="37"/>
+      <c r="Z75" s="37"/>
+      <c r="AA75" s="37"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="32">
@@ -5212,41 +5792,49 @@
       </c>
       <c r="E76" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G76" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I76" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J76" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K76" s="38"/>
-      <c r="L76" s="38"/>
-      <c r="M76" s="38"/>
-      <c r="N76" s="38"/>
-      <c r="O76" s="38"/>
-      <c r="P76" s="38"/>
-      <c r="Q76" s="38"/>
-      <c r="R76" s="38"/>
-      <c r="S76" s="38"/>
-      <c r="T76" s="38"/>
-      <c r="U76" s="38"/>
-      <c r="V76" s="38"/>
-      <c r="W76" s="38"/>
-      <c r="X76" s="38"/>
-      <c r="Y76" s="38"/>
-      <c r="Z76" s="38"/>
-      <c r="AA76" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="G76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K76" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O76" s="37"/>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="37"/>
+      <c r="R76" s="37"/>
+      <c r="S76" s="37"/>
+      <c r="T76" s="37"/>
+      <c r="U76" s="37"/>
+      <c r="V76" s="37"/>
+      <c r="W76" s="37"/>
+      <c r="X76" s="37"/>
+      <c r="Y76" s="37"/>
+      <c r="Z76" s="37"/>
+      <c r="AA76" s="37"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="32">
@@ -5264,41 +5852,49 @@
       </c>
       <c r="E77" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G77" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I77" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J77" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K77" s="38"/>
-      <c r="L77" s="38"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="38"/>
-      <c r="O77" s="38"/>
-      <c r="P77" s="38"/>
-      <c r="Q77" s="38"/>
-      <c r="R77" s="38"/>
-      <c r="S77" s="38"/>
-      <c r="T77" s="38"/>
-      <c r="U77" s="38"/>
-      <c r="V77" s="38"/>
-      <c r="W77" s="38"/>
-      <c r="X77" s="38"/>
-      <c r="Y77" s="38"/>
-      <c r="Z77" s="38"/>
-      <c r="AA77" s="38"/>
+        <v>5</v>
+      </c>
+      <c r="G77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N77" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O77" s="37"/>
+      <c r="P77" s="37"/>
+      <c r="Q77" s="37"/>
+      <c r="R77" s="37"/>
+      <c r="S77" s="37"/>
+      <c r="T77" s="37"/>
+      <c r="U77" s="37"/>
+      <c r="V77" s="37"/>
+      <c r="W77" s="37"/>
+      <c r="X77" s="37"/>
+      <c r="Y77" s="37"/>
+      <c r="Z77" s="37"/>
+      <c r="AA77" s="37"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="32">
@@ -5316,41 +5912,49 @@
       </c>
       <c r="E78" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G78" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H78" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I78" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J78" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
-      <c r="M78" s="38"/>
-      <c r="N78" s="38"/>
-      <c r="O78" s="38"/>
-      <c r="P78" s="38"/>
-      <c r="Q78" s="38"/>
-      <c r="R78" s="38"/>
-      <c r="S78" s="38"/>
-      <c r="T78" s="38"/>
-      <c r="U78" s="38"/>
-      <c r="V78" s="38"/>
-      <c r="W78" s="38"/>
-      <c r="X78" s="38"/>
-      <c r="Y78" s="38"/>
-      <c r="Z78" s="38"/>
-      <c r="AA78" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="G78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N78" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O78" s="37"/>
+      <c r="P78" s="37"/>
+      <c r="Q78" s="37"/>
+      <c r="R78" s="37"/>
+      <c r="S78" s="37"/>
+      <c r="T78" s="37"/>
+      <c r="U78" s="37"/>
+      <c r="V78" s="37"/>
+      <c r="W78" s="37"/>
+      <c r="X78" s="37"/>
+      <c r="Y78" s="37"/>
+      <c r="Z78" s="37"/>
+      <c r="AA78" s="37"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="32">
@@ -5368,41 +5972,49 @@
       </c>
       <c r="E79" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G79" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H79" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I79" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J79" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K79" s="38"/>
-      <c r="L79" s="38"/>
-      <c r="M79" s="38"/>
-      <c r="N79" s="38"/>
-      <c r="O79" s="38"/>
-      <c r="P79" s="38"/>
-      <c r="Q79" s="38"/>
-      <c r="R79" s="38"/>
-      <c r="S79" s="38"/>
-      <c r="T79" s="38"/>
-      <c r="U79" s="38"/>
-      <c r="V79" s="38"/>
-      <c r="W79" s="38"/>
-      <c r="X79" s="38"/>
-      <c r="Y79" s="38"/>
-      <c r="Z79" s="38"/>
-      <c r="AA79" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="G79" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K79" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N79" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O79" s="37"/>
+      <c r="P79" s="37"/>
+      <c r="Q79" s="37"/>
+      <c r="R79" s="37"/>
+      <c r="S79" s="37"/>
+      <c r="T79" s="37"/>
+      <c r="U79" s="37"/>
+      <c r="V79" s="37"/>
+      <c r="W79" s="37"/>
+      <c r="X79" s="37"/>
+      <c r="Y79" s="37"/>
+      <c r="Z79" s="37"/>
+      <c r="AA79" s="37"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="32">
@@ -5420,41 +6032,49 @@
       </c>
       <c r="E80" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F80" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G80" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H80" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I80" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J80" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K80" s="38"/>
-      <c r="L80" s="38"/>
-      <c r="M80" s="38"/>
-      <c r="N80" s="38"/>
-      <c r="O80" s="38"/>
-      <c r="P80" s="38"/>
-      <c r="Q80" s="38"/>
-      <c r="R80" s="38"/>
-      <c r="S80" s="38"/>
-      <c r="T80" s="38"/>
-      <c r="U80" s="38"/>
-      <c r="V80" s="38"/>
-      <c r="W80" s="38"/>
-      <c r="X80" s="38"/>
-      <c r="Y80" s="38"/>
-      <c r="Z80" s="38"/>
-      <c r="AA80" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="G80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K80" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="37"/>
+      <c r="R80" s="37"/>
+      <c r="S80" s="37"/>
+      <c r="T80" s="37"/>
+      <c r="U80" s="37"/>
+      <c r="V80" s="37"/>
+      <c r="W80" s="37"/>
+      <c r="X80" s="37"/>
+      <c r="Y80" s="37"/>
+      <c r="Z80" s="37"/>
+      <c r="AA80" s="37"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="32">
@@ -5472,41 +6092,49 @@
       </c>
       <c r="E81" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F81" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G81" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H81" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I81" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J81" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K81" s="38"/>
-      <c r="L81" s="38"/>
-      <c r="M81" s="38"/>
-      <c r="N81" s="38"/>
-      <c r="O81" s="38"/>
-      <c r="P81" s="38"/>
-      <c r="Q81" s="38"/>
-      <c r="R81" s="38"/>
-      <c r="S81" s="38"/>
-      <c r="T81" s="38"/>
-      <c r="U81" s="38"/>
-      <c r="V81" s="38"/>
-      <c r="W81" s="38"/>
-      <c r="X81" s="38"/>
-      <c r="Y81" s="38"/>
-      <c r="Z81" s="38"/>
-      <c r="AA81" s="38"/>
+        <v>5</v>
+      </c>
+      <c r="G81" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M81" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N81" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O81" s="37"/>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="37"/>
+      <c r="R81" s="37"/>
+      <c r="S81" s="37"/>
+      <c r="T81" s="37"/>
+      <c r="U81" s="37"/>
+      <c r="V81" s="37"/>
+      <c r="W81" s="37"/>
+      <c r="X81" s="37"/>
+      <c r="Y81" s="37"/>
+      <c r="Z81" s="37"/>
+      <c r="AA81" s="37"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="32">
@@ -5528,37 +6156,45 @@
       </c>
       <c r="F82" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G82" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H82" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I82" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J82" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K82" s="38"/>
-      <c r="L82" s="38"/>
-      <c r="M82" s="38"/>
-      <c r="N82" s="38"/>
-      <c r="O82" s="38"/>
-      <c r="P82" s="38"/>
-      <c r="Q82" s="38"/>
-      <c r="R82" s="38"/>
-      <c r="S82" s="38"/>
-      <c r="T82" s="38"/>
-      <c r="U82" s="38"/>
-      <c r="V82" s="38"/>
-      <c r="W82" s="38"/>
-      <c r="X82" s="38"/>
-      <c r="Y82" s="38"/>
-      <c r="Z82" s="38"/>
-      <c r="AA82" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="G82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M82" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N82" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O82" s="37"/>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="37"/>
+      <c r="R82" s="37"/>
+      <c r="S82" s="37"/>
+      <c r="T82" s="37"/>
+      <c r="U82" s="37"/>
+      <c r="V82" s="37"/>
+      <c r="W82" s="37"/>
+      <c r="X82" s="37"/>
+      <c r="Y82" s="37"/>
+      <c r="Z82" s="37"/>
+      <c r="AA82" s="37"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="32" t="str">
@@ -5576,27 +6212,27 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G83" s="39"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="38"/>
-      <c r="K83" s="38"/>
-      <c r="L83" s="38"/>
-      <c r="M83" s="38"/>
-      <c r="N83" s="38"/>
-      <c r="O83" s="38"/>
-      <c r="P83" s="38"/>
-      <c r="Q83" s="38"/>
-      <c r="R83" s="38"/>
-      <c r="S83" s="38"/>
-      <c r="T83" s="38"/>
-      <c r="U83" s="38"/>
-      <c r="V83" s="38"/>
-      <c r="W83" s="38"/>
-      <c r="X83" s="38"/>
-      <c r="Y83" s="38"/>
-      <c r="Z83" s="38"/>
-      <c r="AA83" s="38"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="37"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="37"/>
+      <c r="N83" s="37"/>
+      <c r="O83" s="37"/>
+      <c r="P83" s="37"/>
+      <c r="Q83" s="37"/>
+      <c r="R83" s="37"/>
+      <c r="S83" s="37"/>
+      <c r="T83" s="37"/>
+      <c r="U83" s="37"/>
+      <c r="V83" s="37"/>
+      <c r="W83" s="37"/>
+      <c r="X83" s="37"/>
+      <c r="Y83" s="37"/>
+      <c r="Z83" s="37"/>
+      <c r="AA83" s="37"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="32" t="str">
@@ -5614,35 +6250,35 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G84" s="39"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
-      <c r="L84" s="38"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="38"/>
-      <c r="O84" s="38"/>
-      <c r="P84" s="38"/>
-      <c r="Q84" s="38"/>
-      <c r="R84" s="38"/>
-      <c r="S84" s="38"/>
-      <c r="T84" s="38"/>
-      <c r="U84" s="38"/>
-      <c r="V84" s="38"/>
-      <c r="W84" s="38"/>
-      <c r="X84" s="38"/>
-      <c r="Y84" s="38"/>
-      <c r="Z84" s="38"/>
-      <c r="AA84" s="38"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="37"/>
+      <c r="O84" s="37"/>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="37"/>
+      <c r="R84" s="37"/>
+      <c r="S84" s="37"/>
+      <c r="T84" s="37"/>
+      <c r="U84" s="37"/>
+      <c r="V84" s="37"/>
+      <c r="W84" s="37"/>
+      <c r="X84" s="37"/>
+      <c r="Y84" s="37"/>
+      <c r="Z84" s="37"/>
+      <c r="AA84" s="37"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
       <c r="D85" s="27"/>
       <c r="E85" s="27" t="str">
         <f t="shared" si="1"/>
@@ -5652,35 +6288,35 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G85" s="39"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="38"/>
-      <c r="N85" s="38"/>
-      <c r="O85" s="38"/>
-      <c r="P85" s="38"/>
-      <c r="Q85" s="38"/>
-      <c r="R85" s="38"/>
-      <c r="S85" s="38"/>
-      <c r="T85" s="38"/>
-      <c r="U85" s="38"/>
-      <c r="V85" s="38"/>
-      <c r="W85" s="38"/>
-      <c r="X85" s="38"/>
-      <c r="Y85" s="38"/>
-      <c r="Z85" s="38"/>
-      <c r="AA85" s="38"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="37"/>
+      <c r="N85" s="37"/>
+      <c r="O85" s="37"/>
+      <c r="P85" s="37"/>
+      <c r="Q85" s="37"/>
+      <c r="R85" s="37"/>
+      <c r="S85" s="37"/>
+      <c r="T85" s="37"/>
+      <c r="U85" s="37"/>
+      <c r="V85" s="37"/>
+      <c r="W85" s="37"/>
+      <c r="X85" s="37"/>
+      <c r="Y85" s="37"/>
+      <c r="Z85" s="37"/>
+      <c r="AA85" s="37"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
       <c r="D86" s="27"/>
       <c r="E86" s="27" t="str">
         <f t="shared" si="1"/>
@@ -5690,35 +6326,35 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G86" s="39"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="38"/>
-      <c r="M86" s="38"/>
-      <c r="N86" s="38"/>
-      <c r="O86" s="38"/>
-      <c r="P86" s="38"/>
-      <c r="Q86" s="38"/>
-      <c r="R86" s="38"/>
-      <c r="S86" s="38"/>
-      <c r="T86" s="38"/>
-      <c r="U86" s="38"/>
-      <c r="V86" s="38"/>
-      <c r="W86" s="38"/>
-      <c r="X86" s="38"/>
-      <c r="Y86" s="38"/>
-      <c r="Z86" s="38"/>
-      <c r="AA86" s="38"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="37"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="37"/>
+      <c r="S86" s="37"/>
+      <c r="T86" s="37"/>
+      <c r="U86" s="37"/>
+      <c r="V86" s="37"/>
+      <c r="W86" s="37"/>
+      <c r="X86" s="37"/>
+      <c r="Y86" s="37"/>
+      <c r="Z86" s="37"/>
+      <c r="AA86" s="37"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
       <c r="D87" s="27"/>
       <c r="E87" s="27" t="str">
         <f t="shared" si="1"/>
@@ -5728,35 +6364,35 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G87" s="39"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38"/>
-      <c r="L87" s="38"/>
-      <c r="M87" s="38"/>
-      <c r="N87" s="38"/>
-      <c r="O87" s="38"/>
-      <c r="P87" s="38"/>
-      <c r="Q87" s="38"/>
-      <c r="R87" s="38"/>
-      <c r="S87" s="38"/>
-      <c r="T87" s="38"/>
-      <c r="U87" s="38"/>
-      <c r="V87" s="38"/>
-      <c r="W87" s="38"/>
-      <c r="X87" s="38"/>
-      <c r="Y87" s="38"/>
-      <c r="Z87" s="38"/>
-      <c r="AA87" s="38"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="37"/>
+      <c r="K87" s="37"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="37"/>
+      <c r="N87" s="37"/>
+      <c r="O87" s="37"/>
+      <c r="P87" s="37"/>
+      <c r="Q87" s="37"/>
+      <c r="R87" s="37"/>
+      <c r="S87" s="37"/>
+      <c r="T87" s="37"/>
+      <c r="U87" s="37"/>
+      <c r="V87" s="37"/>
+      <c r="W87" s="37"/>
+      <c r="X87" s="37"/>
+      <c r="Y87" s="37"/>
+      <c r="Z87" s="37"/>
+      <c r="AA87" s="37"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
       <c r="D88" s="27"/>
       <c r="E88" s="27" t="str">
         <f t="shared" si="1"/>
@@ -5766,35 +6402,35 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G88" s="39"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="38"/>
-      <c r="L88" s="38"/>
-      <c r="M88" s="38"/>
-      <c r="N88" s="38"/>
-      <c r="O88" s="38"/>
-      <c r="P88" s="38"/>
-      <c r="Q88" s="38"/>
-      <c r="R88" s="38"/>
-      <c r="S88" s="38"/>
-      <c r="T88" s="38"/>
-      <c r="U88" s="38"/>
-      <c r="V88" s="38"/>
-      <c r="W88" s="38"/>
-      <c r="X88" s="38"/>
-      <c r="Y88" s="38"/>
-      <c r="Z88" s="38"/>
-      <c r="AA88" s="38"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="37"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="37"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="37"/>
+      <c r="Q88" s="37"/>
+      <c r="R88" s="37"/>
+      <c r="S88" s="37"/>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="37"/>
+      <c r="W88" s="37"/>
+      <c r="X88" s="37"/>
+      <c r="Y88" s="37"/>
+      <c r="Z88" s="37"/>
+      <c r="AA88" s="37"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="44"/>
       <c r="D89" s="27"/>
       <c r="E89" s="27" t="str">
         <f t="shared" si="1"/>
@@ -5804,35 +6440,35 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G89" s="39"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="38"/>
-      <c r="M89" s="38"/>
-      <c r="N89" s="38"/>
-      <c r="O89" s="38"/>
-      <c r="P89" s="38"/>
-      <c r="Q89" s="38"/>
-      <c r="R89" s="38"/>
-      <c r="S89" s="38"/>
-      <c r="T89" s="38"/>
-      <c r="U89" s="38"/>
-      <c r="V89" s="38"/>
-      <c r="W89" s="38"/>
-      <c r="X89" s="38"/>
-      <c r="Y89" s="38"/>
-      <c r="Z89" s="38"/>
-      <c r="AA89" s="38"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="37"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="37"/>
+      <c r="Q89" s="37"/>
+      <c r="R89" s="37"/>
+      <c r="S89" s="37"/>
+      <c r="T89" s="37"/>
+      <c r="U89" s="37"/>
+      <c r="V89" s="37"/>
+      <c r="W89" s="37"/>
+      <c r="X89" s="37"/>
+      <c r="Y89" s="37"/>
+      <c r="Z89" s="37"/>
+      <c r="AA89" s="37"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="44"/>
       <c r="D90" s="27"/>
       <c r="E90" s="27" t="str">
         <f t="shared" si="1"/>
@@ -5842,35 +6478,35 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G90" s="39"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="38"/>
-      <c r="M90" s="38"/>
-      <c r="N90" s="38"/>
-      <c r="O90" s="38"/>
-      <c r="P90" s="38"/>
-      <c r="Q90" s="38"/>
-      <c r="R90" s="38"/>
-      <c r="S90" s="38"/>
-      <c r="T90" s="38"/>
-      <c r="U90" s="38"/>
-      <c r="V90" s="38"/>
-      <c r="W90" s="38"/>
-      <c r="X90" s="38"/>
-      <c r="Y90" s="38"/>
-      <c r="Z90" s="38"/>
-      <c r="AA90" s="38"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="37"/>
+      <c r="O90" s="37"/>
+      <c r="P90" s="37"/>
+      <c r="Q90" s="37"/>
+      <c r="R90" s="37"/>
+      <c r="S90" s="37"/>
+      <c r="T90" s="37"/>
+      <c r="U90" s="37"/>
+      <c r="V90" s="37"/>
+      <c r="W90" s="37"/>
+      <c r="X90" s="37"/>
+      <c r="Y90" s="37"/>
+      <c r="Z90" s="37"/>
+      <c r="AA90" s="37"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="44"/>
       <c r="D91" s="27"/>
       <c r="E91" s="27" t="str">
         <f t="shared" si="1"/>
@@ -5880,35 +6516,35 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G91" s="39"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="38"/>
-      <c r="L91" s="38"/>
-      <c r="M91" s="38"/>
-      <c r="N91" s="38"/>
-      <c r="O91" s="38"/>
-      <c r="P91" s="38"/>
-      <c r="Q91" s="38"/>
-      <c r="R91" s="38"/>
-      <c r="S91" s="38"/>
-      <c r="T91" s="38"/>
-      <c r="U91" s="38"/>
-      <c r="V91" s="38"/>
-      <c r="W91" s="38"/>
-      <c r="X91" s="38"/>
-      <c r="Y91" s="38"/>
-      <c r="Z91" s="38"/>
-      <c r="AA91" s="38"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="37"/>
+      <c r="Q91" s="37"/>
+      <c r="R91" s="37"/>
+      <c r="S91" s="37"/>
+      <c r="T91" s="37"/>
+      <c r="U91" s="37"/>
+      <c r="V91" s="37"/>
+      <c r="W91" s="37"/>
+      <c r="X91" s="37"/>
+      <c r="Y91" s="37"/>
+      <c r="Z91" s="37"/>
+      <c r="AA91" s="37"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B92" s="40"/>
-      <c r="C92" s="40"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="44"/>
       <c r="D92" s="27"/>
       <c r="E92" s="27" t="str">
         <f t="shared" si="1"/>
@@ -5918,35 +6554,35 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G92" s="39"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="38"/>
-      <c r="K92" s="38"/>
-      <c r="L92" s="38"/>
-      <c r="M92" s="38"/>
-      <c r="N92" s="38"/>
-      <c r="O92" s="38"/>
-      <c r="P92" s="38"/>
-      <c r="Q92" s="38"/>
-      <c r="R92" s="38"/>
-      <c r="S92" s="38"/>
-      <c r="T92" s="38"/>
-      <c r="U92" s="38"/>
-      <c r="V92" s="38"/>
-      <c r="W92" s="38"/>
-      <c r="X92" s="38"/>
-      <c r="Y92" s="38"/>
-      <c r="Z92" s="38"/>
-      <c r="AA92" s="38"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="37"/>
+      <c r="K92" s="37"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="37"/>
+      <c r="N92" s="37"/>
+      <c r="O92" s="37"/>
+      <c r="P92" s="37"/>
+      <c r="Q92" s="37"/>
+      <c r="R92" s="37"/>
+      <c r="S92" s="37"/>
+      <c r="T92" s="37"/>
+      <c r="U92" s="37"/>
+      <c r="V92" s="37"/>
+      <c r="W92" s="37"/>
+      <c r="X92" s="37"/>
+      <c r="Y92" s="37"/>
+      <c r="Z92" s="37"/>
+      <c r="AA92" s="37"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B93" s="40"/>
-      <c r="C93" s="40"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="44"/>
       <c r="D93" s="27"/>
       <c r="E93" s="27" t="str">
         <f t="shared" si="1"/>
@@ -5956,35 +6592,35 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G93" s="39"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="38"/>
-      <c r="K93" s="38"/>
-      <c r="L93" s="38"/>
-      <c r="M93" s="38"/>
-      <c r="N93" s="38"/>
-      <c r="O93" s="38"/>
-      <c r="P93" s="38"/>
-      <c r="Q93" s="38"/>
-      <c r="R93" s="38"/>
-      <c r="S93" s="38"/>
-      <c r="T93" s="38"/>
-      <c r="U93" s="38"/>
-      <c r="V93" s="38"/>
-      <c r="W93" s="38"/>
-      <c r="X93" s="38"/>
-      <c r="Y93" s="38"/>
-      <c r="Z93" s="38"/>
-      <c r="AA93" s="38"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="37"/>
+      <c r="L93" s="37"/>
+      <c r="M93" s="37"/>
+      <c r="N93" s="37"/>
+      <c r="O93" s="37"/>
+      <c r="P93" s="37"/>
+      <c r="Q93" s="37"/>
+      <c r="R93" s="37"/>
+      <c r="S93" s="37"/>
+      <c r="T93" s="37"/>
+      <c r="U93" s="37"/>
+      <c r="V93" s="37"/>
+      <c r="W93" s="37"/>
+      <c r="X93" s="37"/>
+      <c r="Y93" s="37"/>
+      <c r="Z93" s="37"/>
+      <c r="AA93" s="37"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="44"/>
       <c r="D94" s="27"/>
       <c r="E94" s="27" t="str">
         <f t="shared" si="1"/>
@@ -5994,35 +6630,35 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G94" s="39"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="38"/>
-      <c r="K94" s="38"/>
-      <c r="L94" s="38"/>
-      <c r="M94" s="38"/>
-      <c r="N94" s="38"/>
-      <c r="O94" s="38"/>
-      <c r="P94" s="38"/>
-      <c r="Q94" s="38"/>
-      <c r="R94" s="38"/>
-      <c r="S94" s="38"/>
-      <c r="T94" s="38"/>
-      <c r="U94" s="38"/>
-      <c r="V94" s="38"/>
-      <c r="W94" s="38"/>
-      <c r="X94" s="38"/>
-      <c r="Y94" s="38"/>
-      <c r="Z94" s="38"/>
-      <c r="AA94" s="38"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="37"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="37"/>
+      <c r="N94" s="37"/>
+      <c r="O94" s="37"/>
+      <c r="P94" s="37"/>
+      <c r="Q94" s="37"/>
+      <c r="R94" s="37"/>
+      <c r="S94" s="37"/>
+      <c r="T94" s="37"/>
+      <c r="U94" s="37"/>
+      <c r="V94" s="37"/>
+      <c r="W94" s="37"/>
+      <c r="X94" s="37"/>
+      <c r="Y94" s="37"/>
+      <c r="Z94" s="37"/>
+      <c r="AA94" s="37"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B95" s="40"/>
-      <c r="C95" s="40"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="44"/>
       <c r="D95" s="27"/>
       <c r="E95" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6032,27 +6668,27 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G95" s="39"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="38"/>
-      <c r="K95" s="38"/>
-      <c r="L95" s="38"/>
-      <c r="M95" s="38"/>
-      <c r="N95" s="38"/>
-      <c r="O95" s="38"/>
-      <c r="P95" s="38"/>
-      <c r="Q95" s="38"/>
-      <c r="R95" s="38"/>
-      <c r="S95" s="38"/>
-      <c r="T95" s="38"/>
-      <c r="U95" s="38"/>
-      <c r="V95" s="38"/>
-      <c r="W95" s="38"/>
-      <c r="X95" s="38"/>
-      <c r="Y95" s="38"/>
-      <c r="Z95" s="38"/>
-      <c r="AA95" s="38"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="37"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="37"/>
+      <c r="N95" s="37"/>
+      <c r="O95" s="37"/>
+      <c r="P95" s="37"/>
+      <c r="Q95" s="37"/>
+      <c r="R95" s="37"/>
+      <c r="S95" s="37"/>
+      <c r="T95" s="37"/>
+      <c r="U95" s="37"/>
+      <c r="V95" s="37"/>
+      <c r="W95" s="37"/>
+      <c r="X95" s="37"/>
+      <c r="Y95" s="37"/>
+      <c r="Z95" s="37"/>
+      <c r="AA95" s="37"/>
     </row>
     <row r="96" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>

--- a/attendance-files/FA-II/FA-II (C) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (C) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="172">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -81,13 +81,13 @@
     <t>P</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>2024PGP005</t>
   </si>
   <si>
     <t>Aakash Gaurav Patel</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>2021IPM005</t>
@@ -541,7 +541,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd\,\ d\ mmmm\,\ yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -588,6 +588,15 @@
     </font>
     <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -918,7 +927,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -999,7 +1008,7 @@
     <xf borderId="21" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1015,11 +1024,11 @@
     <xf borderId="25" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="21" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="21" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1028,10 +1037,16 @@
     <xf borderId="21" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="21" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="21" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="21" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="21" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1652,11 +1667,11 @@
       </c>
       <c r="E7" s="27">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1682,8 +1697,12 @@
       <c r="N7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
+      <c r="O7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q7" s="31"/>
       <c r="R7" s="31"/>
       <c r="S7" s="31"/>
@@ -1702,21 +1721,21 @@
         <v>2</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>20</v>
@@ -1725,7 +1744,7 @@
         <v>20</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J8" s="29" t="s">
         <v>20</v>
@@ -1737,13 +1756,17 @@
         <v>20</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
+      <c r="O8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q8" s="37"/>
       <c r="R8" s="37"/>
       <c r="S8" s="37"/>
@@ -1772,17 +1795,17 @@
       </c>
       <c r="E9" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="29" t="s">
         <v>20</v>
@@ -1791,7 +1814,7 @@
         <v>20</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="29" t="s">
         <v>20</v>
@@ -1800,10 +1823,14 @@
         <v>20</v>
       </c>
       <c r="N9" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="Q9" s="37"/>
       <c r="R9" s="37"/>
       <c r="S9" s="37"/>
@@ -1836,7 +1863,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>20</v>
@@ -1848,7 +1875,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K10" s="29" t="s">
         <v>20</v>
@@ -1860,10 +1887,14 @@
         <v>20</v>
       </c>
       <c r="N10" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q10" s="37"/>
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
@@ -1896,7 +1927,7 @@
       </c>
       <c r="F11" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>20</v>
@@ -1917,13 +1948,17 @@
         <v>20</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
+      <c r="O11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q11" s="37"/>
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
@@ -1956,7 +1991,7 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>20</v>
@@ -1965,7 +2000,7 @@
         <v>20</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J12" s="29" t="s">
         <v>20</v>
@@ -1982,8 +2017,12 @@
       <c r="N12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
+      <c r="O12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q12" s="37"/>
       <c r="R12" s="37"/>
       <c r="S12" s="37"/>
@@ -2012,11 +2051,11 @@
       </c>
       <c r="E13" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>20</v>
@@ -2025,7 +2064,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J13" s="29" t="s">
         <v>20</v>
@@ -2040,10 +2079,14 @@
         <v>20</v>
       </c>
       <c r="N13" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Q13" s="37"/>
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
@@ -2072,11 +2115,11 @@
       </c>
       <c r="E14" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>20</v>
@@ -2102,8 +2145,12 @@
       <c r="N14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
+      <c r="O14" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q14" s="37"/>
       <c r="R14" s="37"/>
       <c r="S14" s="37"/>
@@ -2136,7 +2183,7 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>20</v>
@@ -2162,8 +2209,12 @@
       <c r="N15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
+      <c r="O15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q15" s="37"/>
       <c r="R15" s="37"/>
       <c r="S15" s="37"/>
@@ -2196,7 +2247,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>20</v>
@@ -2211,7 +2262,7 @@
         <v>20</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L16" s="29" t="s">
         <v>20</v>
@@ -2222,8 +2273,12 @@
       <c r="N16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
+      <c r="O16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q16" s="37"/>
       <c r="R16" s="37"/>
       <c r="S16" s="37"/>
@@ -2256,7 +2311,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>20</v>
@@ -2282,8 +2337,12 @@
       <c r="N17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
+      <c r="O17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q17" s="37"/>
       <c r="R17" s="37"/>
       <c r="S17" s="37"/>
@@ -2312,11 +2371,11 @@
       </c>
       <c r="E18" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>20</v>
@@ -2337,13 +2396,17 @@
         <v>20</v>
       </c>
       <c r="M18" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
+      <c r="O18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q18" s="37"/>
       <c r="R18" s="37"/>
       <c r="S18" s="37"/>
@@ -2372,7 +2435,7 @@
       </c>
       <c r="E19" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" s="35">
         <f t="shared" si="2"/>
@@ -2397,13 +2460,17 @@
         <v>20</v>
       </c>
       <c r="M19" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="N19" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Q19" s="37"/>
       <c r="R19" s="37"/>
       <c r="S19" s="37"/>
@@ -2432,11 +2499,11 @@
       </c>
       <c r="E20" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>20</v>
@@ -2462,8 +2529,12 @@
       <c r="N20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
+      <c r="O20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q20" s="37"/>
       <c r="R20" s="37"/>
       <c r="S20" s="37"/>
@@ -2496,7 +2567,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>20</v>
@@ -2522,8 +2593,12 @@
       <c r="N21" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
+      <c r="O21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q21" s="37"/>
       <c r="R21" s="37"/>
       <c r="S21" s="37"/>
@@ -2556,7 +2631,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>20</v>
@@ -2565,7 +2640,7 @@
         <v>20</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>20</v>
@@ -2582,8 +2657,12 @@
       <c r="N22" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
+      <c r="O22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q22" s="37"/>
       <c r="R22" s="37"/>
       <c r="S22" s="37"/>
@@ -2616,13 +2695,13 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>20</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I23" s="29" t="s">
         <v>20</v>
@@ -2631,7 +2710,7 @@
         <v>20</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L23" s="29" t="s">
         <v>20</v>
@@ -2642,8 +2721,12 @@
       <c r="N23" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
+      <c r="O23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q23" s="37"/>
       <c r="R23" s="37"/>
       <c r="S23" s="37"/>
@@ -2672,7 +2755,7 @@
       </c>
       <c r="E24" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24" s="35">
         <f t="shared" si="2"/>
@@ -2681,14 +2764,14 @@
       <c r="G24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="29" t="s">
-        <v>20</v>
+      <c r="H24" s="39" t="s">
+        <v>21</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>21</v>
       </c>
       <c r="K24" s="29" t="s">
         <v>20</v>
@@ -2697,13 +2780,17 @@
         <v>20</v>
       </c>
       <c r="M24" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N24" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
+      <c r="O24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q24" s="37"/>
       <c r="R24" s="37"/>
       <c r="S24" s="37"/>
@@ -2736,13 +2823,13 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>20</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I25" s="29" t="s">
         <v>20</v>
@@ -2760,10 +2847,14 @@
         <v>20</v>
       </c>
       <c r="N25" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q25" s="37"/>
       <c r="R25" s="37"/>
       <c r="S25" s="37"/>
@@ -2792,38 +2883,42 @@
       </c>
       <c r="E26" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
+        <v>2</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="Q26" s="37"/>
       <c r="R26" s="37"/>
       <c r="S26" s="37"/>
@@ -2852,11 +2947,11 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>20</v>
@@ -2871,7 +2966,7 @@
         <v>20</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L27" s="29" t="s">
         <v>20</v>
@@ -2882,8 +2977,12 @@
       <c r="N27" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
+      <c r="O27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q27" s="37"/>
       <c r="R27" s="37"/>
       <c r="S27" s="37"/>
@@ -2916,7 +3015,7 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>20</v>
@@ -2925,25 +3024,29 @@
         <v>20</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L28" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M28" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N28" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
+      <c r="O28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q28" s="37"/>
       <c r="R28" s="37"/>
       <c r="S28" s="37"/>
@@ -2972,26 +3075,26 @@
       </c>
       <c r="E29" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H29" s="29" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J29" s="29" t="s">
         <v>20</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L29" s="29" t="s">
         <v>20</v>
@@ -3000,10 +3103,14 @@
         <v>20</v>
       </c>
       <c r="N29" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Q29" s="37"/>
       <c r="R29" s="37"/>
       <c r="S29" s="37"/>
@@ -3036,13 +3143,13 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I30" s="29" t="s">
         <v>20</v>
@@ -3057,13 +3164,17 @@
         <v>20</v>
       </c>
       <c r="M30" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N30" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="O30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q30" s="37"/>
       <c r="R30" s="37"/>
       <c r="S30" s="37"/>
@@ -3092,11 +3203,11 @@
       </c>
       <c r="E31" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>20</v>
@@ -3105,7 +3216,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J31" s="29" t="s">
         <v>20</v>
@@ -3117,13 +3228,17 @@
         <v>20</v>
       </c>
       <c r="M31" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
+      <c r="O31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Q31" s="37"/>
       <c r="R31" s="37"/>
       <c r="S31" s="37"/>
@@ -3152,11 +3267,11 @@
       </c>
       <c r="E32" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>20</v>
@@ -3171,19 +3286,23 @@
         <v>20</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L32" s="29" t="s">
         <v>20</v>
       </c>
       <c r="M32" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
+      <c r="O32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q32" s="37"/>
       <c r="R32" s="37"/>
       <c r="S32" s="37"/>
@@ -3216,7 +3335,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>20</v>
@@ -3240,10 +3359,14 @@
         <v>20</v>
       </c>
       <c r="N33" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="O33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q33" s="37"/>
       <c r="R33" s="37"/>
       <c r="S33" s="37"/>
@@ -3276,10 +3399,10 @@
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H34" s="29" t="s">
         <v>20</v>
@@ -3291,19 +3414,23 @@
         <v>20</v>
       </c>
       <c r="K34" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L34" s="29" t="s">
         <v>20</v>
       </c>
       <c r="M34" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
+      <c r="O34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q34" s="37"/>
       <c r="R34" s="37"/>
       <c r="S34" s="37"/>
@@ -3332,7 +3459,7 @@
       </c>
       <c r="E35" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35" s="35">
         <f t="shared" si="2"/>
@@ -3348,10 +3475,10 @@
         <v>20</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K35" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L35" s="29" t="s">
         <v>20</v>
@@ -3362,8 +3489,12 @@
       <c r="N35" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
+      <c r="O35" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Q35" s="37"/>
       <c r="R35" s="37"/>
       <c r="S35" s="37"/>
@@ -3392,11 +3523,11 @@
       </c>
       <c r="E36" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>20</v>
@@ -3422,8 +3553,12 @@
       <c r="N36" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
+      <c r="O36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q36" s="37"/>
       <c r="R36" s="37"/>
       <c r="S36" s="37"/>
@@ -3456,7 +3591,7 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>20</v>
@@ -3480,10 +3615,14 @@
         <v>20</v>
       </c>
       <c r="N37" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="O37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q37" s="37"/>
       <c r="R37" s="37"/>
       <c r="S37" s="37"/>
@@ -3512,11 +3651,11 @@
       </c>
       <c r="E38" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>20</v>
@@ -3542,8 +3681,12 @@
       <c r="N38" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
+      <c r="O38" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q38" s="37"/>
       <c r="R38" s="37"/>
       <c r="S38" s="37"/>
@@ -3572,11 +3715,11 @@
       </c>
       <c r="E39" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>20</v>
@@ -3602,8 +3745,12 @@
       <c r="N39" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
+      <c r="O39" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q39" s="37"/>
       <c r="R39" s="37"/>
       <c r="S39" s="37"/>
@@ -3636,16 +3783,16 @@
       </c>
       <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J40" s="29" t="s">
         <v>20</v>
@@ -3662,8 +3809,12 @@
       <c r="N40" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
+      <c r="O40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q40" s="37"/>
       <c r="R40" s="37"/>
       <c r="S40" s="37"/>
@@ -3696,7 +3847,7 @@
       </c>
       <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>20</v>
@@ -3717,13 +3868,17 @@
         <v>20</v>
       </c>
       <c r="M41" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N41" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
+      <c r="O41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q41" s="37"/>
       <c r="R41" s="37"/>
       <c r="S41" s="37"/>
@@ -3756,7 +3911,7 @@
       </c>
       <c r="F42" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>20</v>
@@ -3765,10 +3920,10 @@
         <v>20</v>
       </c>
       <c r="I42" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J42" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K42" s="29" t="s">
         <v>20</v>
@@ -3782,8 +3937,12 @@
       <c r="N42" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
+      <c r="O42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q42" s="37"/>
       <c r="R42" s="37"/>
       <c r="S42" s="37"/>
@@ -3812,11 +3971,11 @@
       </c>
       <c r="E43" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>20</v>
@@ -3837,13 +3996,17 @@
         <v>20</v>
       </c>
       <c r="M43" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N43" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
+      <c r="O43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Q43" s="37"/>
       <c r="R43" s="37"/>
       <c r="S43" s="37"/>
@@ -3876,7 +4039,7 @@
       </c>
       <c r="F44" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>20</v>
@@ -3902,8 +4065,12 @@
       <c r="N44" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
+      <c r="O44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q44" s="37"/>
       <c r="R44" s="37"/>
       <c r="S44" s="37"/>
@@ -3936,7 +4103,7 @@
       </c>
       <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G45" s="29" t="s">
         <v>20</v>
@@ -3962,8 +4129,12 @@
       <c r="N45" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
+      <c r="O45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q45" s="37"/>
       <c r="R45" s="37"/>
       <c r="S45" s="37"/>
@@ -3996,7 +4167,7 @@
       </c>
       <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G46" s="29" t="s">
         <v>20</v>
@@ -4020,10 +4191,14 @@
         <v>20</v>
       </c>
       <c r="N46" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="O46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q46" s="37"/>
       <c r="R46" s="37"/>
       <c r="S46" s="37"/>
@@ -4056,7 +4231,7 @@
       </c>
       <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G47" s="29" t="s">
         <v>20</v>
@@ -4077,13 +4252,17 @@
         <v>20</v>
       </c>
       <c r="M47" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N47" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
+      <c r="O47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q47" s="37"/>
       <c r="R47" s="37"/>
       <c r="S47" s="37"/>
@@ -4116,7 +4295,7 @@
       </c>
       <c r="F48" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G48" s="29" t="s">
         <v>20</v>
@@ -4131,7 +4310,7 @@
         <v>20</v>
       </c>
       <c r="K48" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L48" s="29" t="s">
         <v>20</v>
@@ -4142,8 +4321,12 @@
       <c r="N48" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
+      <c r="O48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q48" s="37"/>
       <c r="R48" s="37"/>
       <c r="S48" s="37"/>
@@ -4176,19 +4359,19 @@
       </c>
       <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G49" s="29" t="s">
         <v>20</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I49" s="29" t="s">
         <v>20</v>
       </c>
       <c r="J49" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K49" s="29" t="s">
         <v>20</v>
@@ -4202,8 +4385,12 @@
       <c r="N49" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
+      <c r="O49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q49" s="37"/>
       <c r="R49" s="37"/>
       <c r="S49" s="37"/>
@@ -4232,11 +4419,11 @@
       </c>
       <c r="E50" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G50" s="29" t="s">
         <v>20</v>
@@ -4245,7 +4432,7 @@
         <v>20</v>
       </c>
       <c r="I50" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J50" s="29" t="s">
         <v>20</v>
@@ -4262,8 +4449,12 @@
       <c r="N50" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
+      <c r="O50" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q50" s="37"/>
       <c r="R50" s="37"/>
       <c r="S50" s="37"/>
@@ -4296,13 +4487,13 @@
       </c>
       <c r="F51" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I51" s="29" t="s">
         <v>20</v>
@@ -4311,7 +4502,7 @@
         <v>20</v>
       </c>
       <c r="K51" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L51" s="29" t="s">
         <v>20</v>
@@ -4322,8 +4513,12 @@
       <c r="N51" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
+      <c r="O51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q51" s="37"/>
       <c r="R51" s="37"/>
       <c r="S51" s="37"/>
@@ -4356,7 +4551,7 @@
       </c>
       <c r="F52" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>20</v>
@@ -4380,10 +4575,14 @@
         <v>20</v>
       </c>
       <c r="N52" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="O52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q52" s="37"/>
       <c r="R52" s="37"/>
       <c r="S52" s="37"/>
@@ -4416,7 +4615,7 @@
       </c>
       <c r="F53" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>20</v>
@@ -4442,8 +4641,12 @@
       <c r="N53" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
+      <c r="O53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q53" s="37"/>
       <c r="R53" s="37"/>
       <c r="S53" s="37"/>
@@ -4472,7 +4675,7 @@
       </c>
       <c r="E54" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" s="35">
         <f t="shared" si="2"/>
@@ -4491,7 +4694,7 @@
         <v>20</v>
       </c>
       <c r="K54" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L54" s="29" t="s">
         <v>20</v>
@@ -4502,8 +4705,12 @@
       <c r="N54" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
+      <c r="O54" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P54" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q54" s="37"/>
       <c r="R54" s="37"/>
       <c r="S54" s="37"/>
@@ -4532,11 +4739,11 @@
       </c>
       <c r="E55" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>20</v>
@@ -4551,7 +4758,7 @@
         <v>20</v>
       </c>
       <c r="K55" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L55" s="29" t="s">
         <v>20</v>
@@ -4562,8 +4769,12 @@
       <c r="N55" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
+      <c r="O55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q55" s="37"/>
       <c r="R55" s="37"/>
       <c r="S55" s="37"/>
@@ -4596,7 +4807,7 @@
       </c>
       <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>20</v>
@@ -4622,8 +4833,12 @@
       <c r="N56" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
+      <c r="O56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q56" s="37"/>
       <c r="R56" s="37"/>
       <c r="S56" s="37"/>
@@ -4656,7 +4871,7 @@
       </c>
       <c r="F57" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>20</v>
@@ -4682,8 +4897,12 @@
       <c r="N57" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
+      <c r="O57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q57" s="37"/>
       <c r="R57" s="37"/>
       <c r="S57" s="37"/>
@@ -4716,7 +4935,7 @@
       </c>
       <c r="F58" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G58" s="29" t="s">
         <v>20</v>
@@ -4731,7 +4950,7 @@
         <v>20</v>
       </c>
       <c r="K58" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L58" s="29" t="s">
         <v>20</v>
@@ -4742,8 +4961,12 @@
       <c r="N58" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
+      <c r="O58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q58" s="37"/>
       <c r="R58" s="37"/>
       <c r="S58" s="37"/>
@@ -4776,7 +4999,7 @@
       </c>
       <c r="F59" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>20</v>
@@ -4794,16 +5017,20 @@
         <v>20</v>
       </c>
       <c r="L59" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M59" s="36" t="s">
         <v>20</v>
       </c>
       <c r="N59" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="O59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q59" s="37"/>
       <c r="R59" s="37"/>
       <c r="S59" s="37"/>
@@ -4836,7 +5063,7 @@
       </c>
       <c r="F60" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>20</v>
@@ -4845,7 +5072,7 @@
         <v>20</v>
       </c>
       <c r="I60" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J60" s="29" t="s">
         <v>20</v>
@@ -4857,13 +5084,17 @@
         <v>20</v>
       </c>
       <c r="M60" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N60" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
+      <c r="O60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q60" s="37"/>
       <c r="R60" s="37"/>
       <c r="S60" s="37"/>
@@ -4892,11 +5123,11 @@
       </c>
       <c r="E61" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>20</v>
@@ -4905,13 +5136,13 @@
         <v>20</v>
       </c>
       <c r="I61" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J61" s="29" t="s">
         <v>20</v>
       </c>
       <c r="K61" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L61" s="29" t="s">
         <v>20</v>
@@ -4922,8 +5153,12 @@
       <c r="N61" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
+      <c r="O61" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q61" s="37"/>
       <c r="R61" s="37"/>
       <c r="S61" s="37"/>
@@ -4952,11 +5187,11 @@
       </c>
       <c r="E62" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>20</v>
@@ -4982,8 +5217,12 @@
       <c r="N62" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
+      <c r="O62" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q62" s="37"/>
       <c r="R62" s="37"/>
       <c r="S62" s="37"/>
@@ -5016,7 +5255,7 @@
       </c>
       <c r="F63" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>20</v>
@@ -5031,7 +5270,7 @@
         <v>20</v>
       </c>
       <c r="K63" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L63" s="29" t="s">
         <v>20</v>
@@ -5042,8 +5281,12 @@
       <c r="N63" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
+      <c r="O63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q63" s="37"/>
       <c r="R63" s="37"/>
       <c r="S63" s="37"/>
@@ -5072,38 +5315,42 @@
       </c>
       <c r="E64" s="27">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F64" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G64" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H64" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I64" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J64" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K64" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L64" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M64" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N64" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="O64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P64" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q64" s="37"/>
       <c r="R64" s="37"/>
       <c r="S64" s="37"/>
@@ -5132,11 +5379,11 @@
       </c>
       <c r="E65" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>20</v>
@@ -5160,10 +5407,14 @@
         <v>20</v>
       </c>
       <c r="N65" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="O65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q65" s="37"/>
       <c r="R65" s="37"/>
       <c r="S65" s="37"/>
@@ -5192,7 +5443,7 @@
       </c>
       <c r="E66" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F66" s="35">
         <f t="shared" si="2"/>
@@ -5214,16 +5465,20 @@
         <v>20</v>
       </c>
       <c r="L66" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M66" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N66" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="O66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P66" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="Q66" s="37"/>
       <c r="R66" s="37"/>
       <c r="S66" s="37"/>
@@ -5252,11 +5507,11 @@
       </c>
       <c r="E67" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G67" s="29" t="s">
         <v>20</v>
@@ -5280,10 +5535,14 @@
         <v>20</v>
       </c>
       <c r="N67" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="O67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q67" s="37"/>
       <c r="R67" s="37"/>
       <c r="S67" s="37"/>
@@ -5312,11 +5571,11 @@
       </c>
       <c r="E68" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G68" s="29" t="s">
         <v>20</v>
@@ -5325,7 +5584,7 @@
         <v>20</v>
       </c>
       <c r="I68" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J68" s="29" t="s">
         <v>20</v>
@@ -5337,13 +5596,17 @@
         <v>20</v>
       </c>
       <c r="M68" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N68" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
+      <c r="O68" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q68" s="37"/>
       <c r="R68" s="37"/>
       <c r="S68" s="37"/>
@@ -5372,11 +5635,11 @@
       </c>
       <c r="E69" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>20</v>
@@ -5397,13 +5660,17 @@
         <v>20</v>
       </c>
       <c r="M69" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N69" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
+      <c r="O69" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q69" s="37"/>
       <c r="R69" s="37"/>
       <c r="S69" s="37"/>
@@ -5436,7 +5703,7 @@
       </c>
       <c r="F70" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>20</v>
@@ -5462,8 +5729,12 @@
       <c r="N70" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
+      <c r="O70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q70" s="37"/>
       <c r="R70" s="37"/>
       <c r="S70" s="37"/>
@@ -5496,7 +5767,7 @@
       </c>
       <c r="F71" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>20</v>
@@ -5517,13 +5788,17 @@
         <v>20</v>
       </c>
       <c r="M71" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N71" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O71" s="37"/>
-      <c r="P71" s="37"/>
+      <c r="O71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q71" s="37"/>
       <c r="R71" s="37"/>
       <c r="S71" s="37"/>
@@ -5556,7 +5831,7 @@
       </c>
       <c r="F72" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G72" s="29" t="s">
         <v>20</v>
@@ -5577,13 +5852,17 @@
         <v>20</v>
       </c>
       <c r="M72" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N72" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="O72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q72" s="37"/>
       <c r="R72" s="37"/>
       <c r="S72" s="37"/>
@@ -5616,7 +5895,7 @@
       </c>
       <c r="F73" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G73" s="29" t="s">
         <v>20</v>
@@ -5628,7 +5907,7 @@
         <v>20</v>
       </c>
       <c r="J73" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K73" s="29" t="s">
         <v>20</v>
@@ -5642,8 +5921,12 @@
       <c r="N73" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O73" s="37"/>
-      <c r="P73" s="37"/>
+      <c r="O73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q73" s="37"/>
       <c r="R73" s="37"/>
       <c r="S73" s="37"/>
@@ -5672,11 +5955,11 @@
       </c>
       <c r="E74" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G74" s="29" t="s">
         <v>20</v>
@@ -5697,13 +5980,17 @@
         <v>20</v>
       </c>
       <c r="M74" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N74" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O74" s="37"/>
-      <c r="P74" s="37"/>
+      <c r="O74" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q74" s="37"/>
       <c r="R74" s="37"/>
       <c r="S74" s="37"/>
@@ -5736,7 +6023,7 @@
       </c>
       <c r="F75" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G75" s="29" t="s">
         <v>20</v>
@@ -5760,10 +6047,14 @@
         <v>20</v>
       </c>
       <c r="N75" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="O75" s="37"/>
-      <c r="P75" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="O75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q75" s="37"/>
       <c r="R75" s="37"/>
       <c r="S75" s="37"/>
@@ -5792,11 +6083,11 @@
       </c>
       <c r="E76" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G76" s="29" t="s">
         <v>20</v>
@@ -5808,10 +6099,10 @@
         <v>20</v>
       </c>
       <c r="J76" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K76" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L76" s="29" t="s">
         <v>20</v>
@@ -5822,8 +6113,12 @@
       <c r="N76" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O76" s="37"/>
-      <c r="P76" s="37"/>
+      <c r="O76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q76" s="37"/>
       <c r="R76" s="37"/>
       <c r="S76" s="37"/>
@@ -5852,7 +6147,7 @@
       </c>
       <c r="E77" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F77" s="35">
         <f t="shared" si="2"/>
@@ -5865,7 +6160,7 @@
         <v>20</v>
       </c>
       <c r="I77" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J77" s="29" t="s">
         <v>20</v>
@@ -5877,13 +6172,17 @@
         <v>20</v>
       </c>
       <c r="M77" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N77" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="O77" s="37"/>
-      <c r="P77" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="O77" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P77" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q77" s="37"/>
       <c r="R77" s="37"/>
       <c r="S77" s="37"/>
@@ -5916,7 +6215,7 @@
       </c>
       <c r="F78" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G78" s="29" t="s">
         <v>20</v>
@@ -5937,13 +6236,17 @@
         <v>20</v>
       </c>
       <c r="M78" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N78" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O78" s="37"/>
-      <c r="P78" s="37"/>
+      <c r="O78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q78" s="37"/>
       <c r="R78" s="37"/>
       <c r="S78" s="37"/>
@@ -5976,10 +6279,10 @@
       </c>
       <c r="F79" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G79" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H79" s="29" t="s">
         <v>20</v>
@@ -5991,7 +6294,7 @@
         <v>20</v>
       </c>
       <c r="K79" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L79" s="29" t="s">
         <v>20</v>
@@ -6002,8 +6305,12 @@
       <c r="N79" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O79" s="37"/>
-      <c r="P79" s="37"/>
+      <c r="O79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P79" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q79" s="37"/>
       <c r="R79" s="37"/>
       <c r="S79" s="37"/>
@@ -6036,7 +6343,7 @@
       </c>
       <c r="F80" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G80" s="29" t="s">
         <v>20</v>
@@ -6051,7 +6358,7 @@
         <v>20</v>
       </c>
       <c r="K80" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L80" s="29" t="s">
         <v>20</v>
@@ -6059,11 +6366,15 @@
       <c r="M80" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N80" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="O80" s="37"/>
-      <c r="P80" s="37"/>
+      <c r="N80" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="O80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P80" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q80" s="37"/>
       <c r="R80" s="37"/>
       <c r="S80" s="37"/>
@@ -6092,14 +6403,14 @@
       </c>
       <c r="E81" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F81" s="35">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H81" s="29" t="s">
         <v>20</v>
@@ -6117,13 +6428,17 @@
         <v>20</v>
       </c>
       <c r="M81" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N81" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="O81" s="37"/>
-      <c r="P81" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="O81" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P81" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q81" s="37"/>
       <c r="R81" s="37"/>
       <c r="S81" s="37"/>
@@ -6156,7 +6471,7 @@
       </c>
       <c r="F82" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G82" s="29" t="s">
         <v>20</v>
@@ -6182,8 +6497,12 @@
       <c r="N82" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O82" s="37"/>
-      <c r="P82" s="37"/>
+      <c r="O82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P82" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q82" s="37"/>
       <c r="R82" s="37"/>
       <c r="S82" s="37"/>
@@ -6212,7 +6531,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G83" s="43"/>
+      <c r="G83" s="45"/>
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
       <c r="J83" s="37"/>
@@ -6250,7 +6569,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G84" s="43"/>
+      <c r="G84" s="45"/>
       <c r="H84" s="37"/>
       <c r="I84" s="37"/>
       <c r="J84" s="37"/>
@@ -6277,8 +6596,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="46"/>
       <c r="D85" s="27"/>
       <c r="E85" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6288,7 +6607,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G85" s="43"/>
+      <c r="G85" s="45"/>
       <c r="H85" s="37"/>
       <c r="I85" s="37"/>
       <c r="J85" s="37"/>
@@ -6315,8 +6634,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="46"/>
       <c r="D86" s="27"/>
       <c r="E86" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6326,7 +6645,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G86" s="43"/>
+      <c r="G86" s="45"/>
       <c r="H86" s="37"/>
       <c r="I86" s="37"/>
       <c r="J86" s="37"/>
@@ -6353,8 +6672,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="46"/>
       <c r="D87" s="27"/>
       <c r="E87" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6364,7 +6683,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G87" s="43"/>
+      <c r="G87" s="45"/>
       <c r="H87" s="37"/>
       <c r="I87" s="37"/>
       <c r="J87" s="37"/>
@@ -6391,8 +6710,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="46"/>
       <c r="D88" s="27"/>
       <c r="E88" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6402,7 +6721,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G88" s="43"/>
+      <c r="G88" s="45"/>
       <c r="H88" s="37"/>
       <c r="I88" s="37"/>
       <c r="J88" s="37"/>
@@ -6429,8 +6748,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B89" s="44"/>
-      <c r="C89" s="44"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="46"/>
       <c r="D89" s="27"/>
       <c r="E89" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6440,7 +6759,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G89" s="43"/>
+      <c r="G89" s="45"/>
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
       <c r="J89" s="37"/>
@@ -6467,8 +6786,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B90" s="44"/>
-      <c r="C90" s="44"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
       <c r="D90" s="27"/>
       <c r="E90" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6478,7 +6797,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G90" s="43"/>
+      <c r="G90" s="45"/>
       <c r="H90" s="37"/>
       <c r="I90" s="37"/>
       <c r="J90" s="37"/>
@@ -6505,8 +6824,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B91" s="44"/>
-      <c r="C91" s="44"/>
+      <c r="B91" s="46"/>
+      <c r="C91" s="46"/>
       <c r="D91" s="27"/>
       <c r="E91" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6516,7 +6835,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G91" s="43"/>
+      <c r="G91" s="45"/>
       <c r="H91" s="37"/>
       <c r="I91" s="37"/>
       <c r="J91" s="37"/>
@@ -6543,8 +6862,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B92" s="44"/>
-      <c r="C92" s="44"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="46"/>
       <c r="D92" s="27"/>
       <c r="E92" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6554,7 +6873,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G92" s="43"/>
+      <c r="G92" s="45"/>
       <c r="H92" s="37"/>
       <c r="I92" s="37"/>
       <c r="J92" s="37"/>
@@ -6581,8 +6900,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B93" s="44"/>
-      <c r="C93" s="44"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="46"/>
       <c r="D93" s="27"/>
       <c r="E93" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6592,7 +6911,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G93" s="43"/>
+      <c r="G93" s="45"/>
       <c r="H93" s="37"/>
       <c r="I93" s="37"/>
       <c r="J93" s="37"/>
@@ -6619,8 +6938,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B94" s="44"/>
-      <c r="C94" s="44"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="46"/>
       <c r="D94" s="27"/>
       <c r="E94" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6630,7 +6949,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G94" s="43"/>
+      <c r="G94" s="45"/>
       <c r="H94" s="37"/>
       <c r="I94" s="37"/>
       <c r="J94" s="37"/>
@@ -6657,8 +6976,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B95" s="44"/>
-      <c r="C95" s="44"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="46"/>
       <c r="D95" s="27"/>
       <c r="E95" s="27" t="str">
         <f t="shared" si="1"/>
@@ -6668,7 +6987,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G95" s="43"/>
+      <c r="G95" s="45"/>
       <c r="H95" s="37"/>
       <c r="I95" s="37"/>
       <c r="J95" s="37"/>

--- a/attendance-files/FA-II/FA-II (C) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (C) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="172">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -927,7 +927,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1019,6 +1019,9 @@
     </xf>
     <xf borderId="19" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="22" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1686,7 +1689,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1727,24 +1730,30 @@
       <c r="S7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
+      <c r="T7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="35">
+      <c r="A8" s="36">
         <f t="shared" ref="A8:A95" si="3">IF(B8&gt;0,A7+1,"")</f>
         <v>2</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="38" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="26" t="s">
@@ -1754,9 +1763,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>20</v>
@@ -1776,10 +1785,10 @@
       <c r="L8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="40" t="s">
+      <c r="M8" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O8" s="29" t="s">
@@ -1788,33 +1797,39 @@
       <c r="P8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
+      <c r="Q8" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="35">
+      <c r="A9" s="36">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -1824,9 +1839,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G9" s="31" t="s">
         <v>21</v>
@@ -1846,10 +1861,10 @@
       <c r="L9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="39" t="s">
+      <c r="M9" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="40" t="s">
         <v>21</v>
       </c>
       <c r="O9" s="29" t="s">
@@ -1858,33 +1873,39 @@
       <c r="P9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="41" t="s">
+      <c r="Q9" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
+      <c r="T9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="35">
+      <c r="A10" s="36">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="38" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="26" t="s">
@@ -1892,11 +1913,11 @@
       </c>
       <c r="E10" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F10" s="38">
+        <v>3</v>
+      </c>
+      <c r="F10" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>20</v>
@@ -1916,10 +1937,10 @@
       <c r="L10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="39" t="s">
+      <c r="M10" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="40" t="s">
         <v>21</v>
       </c>
       <c r="O10" s="29" t="s">
@@ -1928,33 +1949,39 @@
       <c r="P10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="41" t="s">
+      <c r="Q10" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
+      <c r="T10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="35">
+      <c r="A11" s="36">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="38" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="26" t="s">
@@ -1964,9 +1991,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>20</v>
@@ -1986,10 +2013,10 @@
       <c r="L11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="40" t="s">
+      <c r="M11" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O11" s="29" t="s">
@@ -1998,33 +2025,39 @@
       <c r="P11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="R11" s="41" t="s">
+      <c r="Q11" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
+      <c r="T11" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V11" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="35">
+      <c r="A12" s="36">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="26" t="s">
@@ -2034,9 +2067,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>20</v>
@@ -2056,10 +2089,10 @@
       <c r="L12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="40" t="s">
+      <c r="M12" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O12" s="29" t="s">
@@ -2068,33 +2101,39 @@
       <c r="P12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="42" t="s">
+      <c r="Q12" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="43" t="s">
         <v>21</v>
       </c>
       <c r="S12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
+      <c r="T12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="35">
+      <c r="A13" s="36">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="38" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="26" t="s">
@@ -2102,11 +2141,11 @@
       </c>
       <c r="E13" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F13" s="38">
+        <v>4</v>
+      </c>
+      <c r="F13" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>20</v>
@@ -2126,10 +2165,10 @@
       <c r="L13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="39" t="s">
+      <c r="M13" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="40" t="s">
         <v>21</v>
       </c>
       <c r="O13" s="29" t="s">
@@ -2138,33 +2177,39 @@
       <c r="P13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="41" t="s">
+      <c r="Q13" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
+      <c r="T13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U13" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="V13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="35">
+      <c r="A14" s="36">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="26" t="s">
@@ -2172,11 +2217,11 @@
       </c>
       <c r="E14" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F14" s="38">
+        <v>3</v>
+      </c>
+      <c r="F14" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>20</v>
@@ -2196,10 +2241,10 @@
       <c r="L14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="40" t="s">
+      <c r="M14" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O14" s="29" t="s">
@@ -2208,33 +2253,39 @@
       <c r="P14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="41" t="s">
+      <c r="Q14" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
+      <c r="T14" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="V14" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="35">
+      <c r="A15" s="36">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="26" t="s">
@@ -2242,11 +2293,11 @@
       </c>
       <c r="E15" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F15" s="38">
+        <v>2</v>
+      </c>
+      <c r="F15" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>20</v>
@@ -2266,10 +2317,10 @@
       <c r="L15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="40" t="s">
+      <c r="M15" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O15" s="29" t="s">
@@ -2278,33 +2329,39 @@
       <c r="P15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" s="41" t="s">
+      <c r="Q15" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
+      <c r="T15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="35">
+      <c r="A16" s="36">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="26" t="s">
@@ -2314,9 +2371,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>20</v>
@@ -2336,10 +2393,10 @@
       <c r="L16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="40" t="s">
+      <c r="M16" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O16" s="29" t="s">
@@ -2348,33 +2405,39 @@
       <c r="P16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R16" s="41" t="s">
+      <c r="Q16" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44"/>
+      <c r="T16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V16" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="35">
+      <c r="A17" s="36">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="38" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="26" t="s">
@@ -2384,9 +2447,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>20</v>
@@ -2406,10 +2469,10 @@
       <c r="L17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="40" t="s">
+      <c r="M17" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O17" s="29" t="s">
@@ -2418,33 +2481,39 @@
       <c r="P17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" s="41" t="s">
+      <c r="Q17" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="44"/>
+      <c r="T17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V17" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="35">
+      <c r="A18" s="36">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="26" t="s">
@@ -2452,11 +2521,11 @@
       </c>
       <c r="E18" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F18" s="38">
+        <v>5</v>
+      </c>
+      <c r="F18" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>20</v>
@@ -2476,10 +2545,10 @@
       <c r="L18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="40" t="s">
+      <c r="M18" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O18" s="29" t="s">
@@ -2488,33 +2557,39 @@
       <c r="P18" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" s="41" t="s">
+      <c r="Q18" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="42" t="s">
         <v>21</v>
       </c>
       <c r="S18" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="44"/>
+      <c r="T18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="35">
+      <c r="A19" s="36">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="38" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="26" t="s">
@@ -2524,9 +2599,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>20</v>
@@ -2546,10 +2621,10 @@
       <c r="L19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="39" t="s">
+      <c r="M19" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="40" t="s">
         <v>21</v>
       </c>
       <c r="O19" s="29" t="s">
@@ -2558,33 +2633,39 @@
       <c r="P19" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q19" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="41" t="s">
+      <c r="Q19" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="44"/>
+      <c r="T19" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V19" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="35">
+      <c r="A20" s="36">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="38" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="26" t="s">
@@ -2594,9 +2675,9 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="39">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>20</v>
@@ -2637,24 +2718,30 @@
       <c r="S20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
+      <c r="T20" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V20" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="35">
+      <c r="A21" s="36">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="38" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="26" t="s">
@@ -2662,82 +2749,88 @@
       </c>
       <c r="E21" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="38">
+        <v>1</v>
+      </c>
+      <c r="F21" s="39">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U21" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="V21" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="36">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="27">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F22" s="39">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="G21" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="S21" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="35">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="27">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F22" s="38">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
       <c r="G22" s="29" t="s">
         <v>20</v>
       </c>
@@ -2750,17 +2843,17 @@
       <c r="J22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="45" t="s">
-        <v>20</v>
+      <c r="K22" s="46" t="s">
+        <v>21</v>
       </c>
       <c r="L22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22" s="46" t="s">
-        <v>20</v>
+      <c r="M22" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="47" t="s">
+        <v>21</v>
       </c>
       <c r="O22" s="29" t="s">
         <v>20</v>
@@ -2768,33 +2861,39 @@
       <c r="P22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R22" s="41" t="s">
+      <c r="Q22" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
+      <c r="T22" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U22" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="35">
+      <c r="A23" s="36">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="38" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="26" t="s">
@@ -2804,9 +2903,9 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="39">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>20</v>
@@ -2826,45 +2925,51 @@
       <c r="L23" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R23" s="39" t="s">
+      <c r="M23" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="40" t="s">
         <v>21</v>
       </c>
       <c r="S23" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="44"/>
+      <c r="T23" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U23" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V23" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="35">
+      <c r="A24" s="36">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="38" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="26" t="s">
@@ -2874,9 +2979,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>20</v>
@@ -2896,10 +3001,10 @@
       <c r="L24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="40" t="s">
+      <c r="M24" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O24" s="29" t="s">
@@ -2908,33 +3013,39 @@
       <c r="P24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q24" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R24" s="41" t="s">
+      <c r="Q24" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S24" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="44"/>
+      <c r="T24" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U24" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V24" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="35">
+      <c r="A25" s="36">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="38" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="26" t="s">
@@ -2944,9 +3055,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>20</v>
@@ -2966,10 +3077,10 @@
       <c r="L25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N25" s="40" t="s">
+      <c r="M25" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="41" t="s">
         <v>21</v>
       </c>
       <c r="O25" s="29" t="s">
@@ -2978,33 +3089,39 @@
       <c r="P25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q25" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="41" t="s">
+      <c r="Q25" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="42" t="s">
         <v>21</v>
       </c>
       <c r="S25" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="44"/>
+      <c r="T25" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U25" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V25" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="35">
+      <c r="A26" s="36">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="38" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="26" t="s">
@@ -3014,67 +3131,73 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="39">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="M26" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="O26" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q26" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R26" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S26" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
+      <c r="T26" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U26" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V26" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="35">
+      <c r="A27" s="36">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="38" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="26" t="s">
@@ -3084,9 +3207,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>20</v>
@@ -3106,10 +3229,10 @@
       <c r="L27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N27" s="40" t="s">
+      <c r="M27" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O27" s="29" t="s">
@@ -3118,33 +3241,39 @@
       <c r="P27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q27" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" s="41" t="s">
+      <c r="Q27" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="42" t="s">
         <v>21</v>
       </c>
       <c r="S27" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
+      <c r="T27" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U27" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V27" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27" s="45"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="45"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="35">
+      <c r="A28" s="36">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="38" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="26" t="s">
@@ -3154,9 +3283,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>20</v>
@@ -3176,10 +3305,10 @@
       <c r="L28" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M28" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="40" t="s">
+      <c r="M28" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O28" s="29" t="s">
@@ -3188,33 +3317,39 @@
       <c r="P28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R28" s="41" t="s">
+      <c r="Q28" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S28" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="44"/>
-      <c r="AA28" s="44"/>
+      <c r="T28" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U28" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V28" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="35">
+      <c r="A29" s="36">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="38" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="26" t="s">
@@ -3224,9 +3359,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>21</v>
@@ -3246,10 +3381,10 @@
       <c r="L29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M29" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N29" s="40" t="s">
+      <c r="M29" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="41" t="s">
         <v>21</v>
       </c>
       <c r="O29" s="29" t="s">
@@ -3258,33 +3393,39 @@
       <c r="P29" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q29" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R29" s="41" t="s">
+      <c r="Q29" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S29" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="44"/>
+      <c r="T29" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V29" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="45"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="35">
+      <c r="A30" s="36">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="38" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="26" t="s">
@@ -3292,11 +3433,11 @@
       </c>
       <c r="E30" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F30" s="38">
+        <v>5</v>
+      </c>
+      <c r="F30" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>21</v>
@@ -3316,10 +3457,10 @@
       <c r="L30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M30" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="40" t="s">
+      <c r="M30" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="41" t="s">
         <v>21</v>
       </c>
       <c r="O30" s="29" t="s">
@@ -3328,33 +3469,39 @@
       <c r="P30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q30" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R30" s="41" t="s">
+      <c r="Q30" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S30" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="44"/>
-      <c r="Z30" s="44"/>
-      <c r="AA30" s="44"/>
+      <c r="T30" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U30" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="V30" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="45"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="35">
+      <c r="A31" s="36">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="38" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="26" t="s">
@@ -3364,9 +3511,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>20</v>
@@ -3386,10 +3533,10 @@
       <c r="L31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M31" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="40" t="s">
+      <c r="M31" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O31" s="29" t="s">
@@ -3398,33 +3545,39 @@
       <c r="P31" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q31" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R31" s="41" t="s">
+      <c r="Q31" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S31" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
+      <c r="T31" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V31" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="45"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="35">
+      <c r="A32" s="36">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="38" t="s">
         <v>71</v>
       </c>
       <c r="D32" s="26" t="s">
@@ -3434,9 +3587,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>20</v>
@@ -3456,10 +3609,10 @@
       <c r="L32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M32" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="40" t="s">
+      <c r="M32" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O32" s="29" t="s">
@@ -3468,33 +3621,39 @@
       <c r="P32" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R32" s="41" t="s">
+      <c r="Q32" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S32" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="44"/>
+      <c r="T32" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U32" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V32" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="45"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="35">
+      <c r="A33" s="36">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="38" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="26" t="s">
@@ -3502,11 +3661,11 @@
       </c>
       <c r="E33" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F33" s="38">
+        <v>3</v>
+      </c>
+      <c r="F33" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>20</v>
@@ -3526,10 +3685,10 @@
       <c r="L33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M33" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N33" s="40" t="s">
+      <c r="M33" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="41" t="s">
         <v>21</v>
       </c>
       <c r="O33" s="29" t="s">
@@ -3538,33 +3697,39 @@
       <c r="P33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R33" s="41" t="s">
+      <c r="Q33" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="44"/>
+      <c r="T33" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U33" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="V33" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="35">
+      <c r="A34" s="36">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="38" t="s">
         <v>75</v>
       </c>
       <c r="D34" s="26" t="s">
@@ -3574,9 +3739,9 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="39">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>21</v>
@@ -3596,10 +3761,10 @@
       <c r="L34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" s="40" t="s">
+      <c r="M34" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O34" s="29" t="s">
@@ -3608,33 +3773,39 @@
       <c r="P34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R34" s="41" t="s">
+      <c r="Q34" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="R34" s="42" t="s">
         <v>21</v>
       </c>
       <c r="S34" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="T34" s="44"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="44"/>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="44"/>
-      <c r="Z34" s="44"/>
-      <c r="AA34" s="44"/>
+      <c r="T34" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U34" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V34" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="45"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="35">
+      <c r="A35" s="36">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="26" t="s">
@@ -3644,9 +3815,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>20</v>
@@ -3666,10 +3837,10 @@
       <c r="L35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M35" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N35" s="40" t="s">
+      <c r="M35" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O35" s="29" t="s">
@@ -3678,33 +3849,39 @@
       <c r="P35" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q35" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R35" s="41" t="s">
+      <c r="Q35" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S35" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T35" s="44"/>
-      <c r="U35" s="44"/>
-      <c r="V35" s="44"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="44"/>
-      <c r="Z35" s="44"/>
-      <c r="AA35" s="44"/>
+      <c r="T35" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U35" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V35" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="45"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="35">
+      <c r="A36" s="36">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="38" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="26" t="s">
@@ -3714,9 +3891,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>20</v>
@@ -3736,10 +3913,10 @@
       <c r="L36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M36" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N36" s="40" t="s">
+      <c r="M36" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O36" s="29" t="s">
@@ -3748,33 +3925,39 @@
       <c r="P36" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q36" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R36" s="41" t="s">
+      <c r="Q36" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="42" t="s">
         <v>21</v>
       </c>
       <c r="S36" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="T36" s="44"/>
-      <c r="U36" s="44"/>
-      <c r="V36" s="44"/>
-      <c r="W36" s="44"/>
-      <c r="X36" s="44"/>
-      <c r="Y36" s="44"/>
-      <c r="Z36" s="44"/>
-      <c r="AA36" s="44"/>
+      <c r="T36" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U36" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V36" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="45"/>
+      <c r="Z36" s="45"/>
+      <c r="AA36" s="45"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="35">
+      <c r="A37" s="36">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="38" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="26" t="s">
@@ -3782,11 +3965,11 @@
       </c>
       <c r="E37" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F37" s="38">
+        <v>4</v>
+      </c>
+      <c r="F37" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>20</v>
@@ -3806,10 +3989,10 @@
       <c r="L37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M37" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N37" s="40" t="s">
+      <c r="M37" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="41" t="s">
         <v>21</v>
       </c>
       <c r="O37" s="29" t="s">
@@ -3818,33 +4001,39 @@
       <c r="P37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q37" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R37" s="41" t="s">
+      <c r="Q37" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R37" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S37" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="T37" s="44"/>
-      <c r="U37" s="44"/>
-      <c r="V37" s="44"/>
-      <c r="W37" s="44"/>
-      <c r="X37" s="44"/>
-      <c r="Y37" s="44"/>
-      <c r="Z37" s="44"/>
-      <c r="AA37" s="44"/>
+      <c r="T37" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="V37" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="35">
+      <c r="A38" s="36">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="38" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="26" t="s">
@@ -3854,9 +4043,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>20</v>
@@ -3876,10 +4065,10 @@
       <c r="L38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M38" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N38" s="40" t="s">
+      <c r="M38" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O38" s="29" t="s">
@@ -3888,33 +4077,39 @@
       <c r="P38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R38" s="41" t="s">
+      <c r="Q38" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="42" t="s">
         <v>21</v>
       </c>
       <c r="S38" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="T38" s="44"/>
-      <c r="U38" s="44"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="44"/>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="44"/>
-      <c r="AA38" s="44"/>
+      <c r="T38" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U38" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V38" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="45"/>
+      <c r="AA38" s="45"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="35">
+      <c r="A39" s="36">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="38" t="s">
         <v>85</v>
       </c>
       <c r="D39" s="26" t="s">
@@ -3922,82 +4117,88 @@
       </c>
       <c r="E39" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F39" s="38">
+        <v>3</v>
+      </c>
+      <c r="F39" s="39">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="S39" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T39" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="U39" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V39" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="36">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="27">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F40" s="39">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="G39" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="M39" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N39" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="O39" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="P39" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R39" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="S39" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="T39" s="44"/>
-      <c r="U39" s="44"/>
-      <c r="V39" s="44"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="35">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="27">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F40" s="38">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
       <c r="G40" s="29" t="s">
         <v>21</v>
       </c>
@@ -4016,10 +4217,10 @@
       <c r="L40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M40" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N40" s="40" t="s">
+      <c r="M40" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O40" s="29" t="s">
@@ -4028,33 +4229,39 @@
       <c r="P40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R40" s="41" t="s">
+      <c r="Q40" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R40" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S40" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T40" s="44"/>
-      <c r="U40" s="44"/>
-      <c r="V40" s="44"/>
-      <c r="W40" s="44"/>
-      <c r="X40" s="44"/>
-      <c r="Y40" s="44"/>
-      <c r="Z40" s="44"/>
-      <c r="AA40" s="44"/>
+      <c r="T40" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="U40" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V40" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="45"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="35">
+      <c r="A41" s="36">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="38" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="26" t="s">
@@ -4064,9 +4271,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F41" s="38">
+      <c r="F41" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>20</v>
@@ -4086,10 +4293,10 @@
       <c r="L41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M41" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N41" s="40" t="s">
+      <c r="M41" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O41" s="29" t="s">
@@ -4098,33 +4305,39 @@
       <c r="P41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R41" s="41" t="s">
+      <c r="Q41" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="R41" s="42" t="s">
         <v>21</v>
       </c>
       <c r="S41" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="44"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="44"/>
-      <c r="Z41" s="44"/>
-      <c r="AA41" s="44"/>
+      <c r="T41" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U41" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V41" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W41" s="45"/>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="45"/>
+      <c r="Z41" s="45"/>
+      <c r="AA41" s="45"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="35">
+      <c r="A42" s="36">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="38" t="s">
         <v>91</v>
       </c>
       <c r="D42" s="26" t="s">
@@ -4132,11 +4345,11 @@
       </c>
       <c r="E42" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F42" s="38">
+        <v>3</v>
+      </c>
+      <c r="F42" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>20</v>
@@ -4156,10 +4369,10 @@
       <c r="L42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M42" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N42" s="40" t="s">
+      <c r="M42" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O42" s="29" t="s">
@@ -4168,33 +4381,39 @@
       <c r="P42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R42" s="41" t="s">
+      <c r="Q42" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R42" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S42" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="44"/>
-      <c r="X42" s="44"/>
-      <c r="Y42" s="44"/>
-      <c r="Z42" s="44"/>
-      <c r="AA42" s="44"/>
+      <c r="T42" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U42" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V42" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W42" s="45"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="45"/>
+      <c r="AA42" s="45"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="35">
+      <c r="A43" s="36">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="38" t="s">
         <v>93</v>
       </c>
       <c r="D43" s="26" t="s">
@@ -4204,9 +4423,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>20</v>
@@ -4226,10 +4445,10 @@
       <c r="L43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N43" s="40" t="s">
+      <c r="M43" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O43" s="29" t="s">
@@ -4238,33 +4457,39 @@
       <c r="P43" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q43" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R43" s="41" t="s">
+      <c r="Q43" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R43" s="42" t="s">
         <v>21</v>
       </c>
       <c r="S43" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="44"/>
-      <c r="X43" s="44"/>
-      <c r="Y43" s="44"/>
-      <c r="Z43" s="44"/>
-      <c r="AA43" s="44"/>
+      <c r="T43" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U43" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V43" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W43" s="45"/>
+      <c r="X43" s="45"/>
+      <c r="Y43" s="45"/>
+      <c r="Z43" s="45"/>
+      <c r="AA43" s="45"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="35">
+      <c r="A44" s="36">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="38" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="26" t="s">
@@ -4274,9 +4499,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>20</v>
@@ -4296,10 +4521,10 @@
       <c r="L44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M44" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N44" s="40" t="s">
+      <c r="M44" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O44" s="29" t="s">
@@ -4308,33 +4533,39 @@
       <c r="P44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q44" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R44" s="41" t="s">
+      <c r="Q44" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R44" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S44" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="44"/>
-      <c r="X44" s="44"/>
-      <c r="Y44" s="44"/>
-      <c r="Z44" s="44"/>
-      <c r="AA44" s="44"/>
+      <c r="T44" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U44" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V44" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W44" s="45"/>
+      <c r="X44" s="45"/>
+      <c r="Y44" s="45"/>
+      <c r="Z44" s="45"/>
+      <c r="AA44" s="45"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="35">
+      <c r="A45" s="36">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="38" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="26" t="s">
@@ -4344,9 +4575,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G45" s="29" t="s">
         <v>20</v>
@@ -4366,10 +4597,10 @@
       <c r="L45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M45" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N45" s="40" t="s">
+      <c r="M45" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O45" s="29" t="s">
@@ -4378,33 +4609,39 @@
       <c r="P45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q45" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R45" s="41" t="s">
+      <c r="Q45" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S45" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="44"/>
-      <c r="X45" s="44"/>
-      <c r="Y45" s="44"/>
-      <c r="Z45" s="44"/>
-      <c r="AA45" s="44"/>
+      <c r="T45" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U45" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V45" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W45" s="45"/>
+      <c r="X45" s="45"/>
+      <c r="Y45" s="45"/>
+      <c r="Z45" s="45"/>
+      <c r="AA45" s="45"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="35">
+      <c r="A46" s="36">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="38" t="s">
         <v>99</v>
       </c>
       <c r="D46" s="26" t="s">
@@ -4412,11 +4649,11 @@
       </c>
       <c r="E46" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F46" s="38">
+        <v>2</v>
+      </c>
+      <c r="F46" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G46" s="29" t="s">
         <v>20</v>
@@ -4436,10 +4673,10 @@
       <c r="L46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M46" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N46" s="40" t="s">
+      <c r="M46" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="41" t="s">
         <v>21</v>
       </c>
       <c r="O46" s="29" t="s">
@@ -4448,33 +4685,39 @@
       <c r="P46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q46" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R46" s="41" t="s">
+      <c r="Q46" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R46" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S46" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T46" s="44"/>
-      <c r="U46" s="44"/>
-      <c r="V46" s="44"/>
-      <c r="W46" s="44"/>
-      <c r="X46" s="44"/>
-      <c r="Y46" s="44"/>
-      <c r="Z46" s="44"/>
-      <c r="AA46" s="44"/>
+      <c r="T46" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="U46" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V46" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W46" s="45"/>
+      <c r="X46" s="45"/>
+      <c r="Y46" s="45"/>
+      <c r="Z46" s="45"/>
+      <c r="AA46" s="45"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="35">
+      <c r="A47" s="36">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="38" t="s">
         <v>101</v>
       </c>
       <c r="D47" s="26" t="s">
@@ -4482,11 +4725,11 @@
       </c>
       <c r="E47" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F47" s="38">
+        <v>2</v>
+      </c>
+      <c r="F47" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G47" s="29" t="s">
         <v>20</v>
@@ -4506,10 +4749,10 @@
       <c r="L47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M47" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N47" s="40" t="s">
+      <c r="M47" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O47" s="29" t="s">
@@ -4518,33 +4761,39 @@
       <c r="P47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q47" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R47" s="41" t="s">
+      <c r="Q47" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S47" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T47" s="44"/>
-      <c r="U47" s="44"/>
-      <c r="V47" s="44"/>
-      <c r="W47" s="44"/>
-      <c r="X47" s="44"/>
-      <c r="Y47" s="44"/>
-      <c r="Z47" s="44"/>
-      <c r="AA47" s="44"/>
+      <c r="T47" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U47" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V47" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W47" s="45"/>
+      <c r="X47" s="45"/>
+      <c r="Y47" s="45"/>
+      <c r="Z47" s="45"/>
+      <c r="AA47" s="45"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="35">
+      <c r="A48" s="36">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="38" t="s">
         <v>103</v>
       </c>
       <c r="D48" s="26" t="s">
@@ -4554,150 +4803,162 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="39">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="S48" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T48" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U48" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V48" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W48" s="45"/>
+      <c r="X48" s="45"/>
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="45"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="36">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="27">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F49" s="39">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="S49" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T49" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U49" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V49" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W49" s="45"/>
+      <c r="X49" s="45"/>
+      <c r="Y49" s="45"/>
+      <c r="Z49" s="45"/>
+      <c r="AA49" s="45"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="36">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="27">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F50" s="39">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="G48" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L48" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="M48" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N48" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="O48" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P48" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q48" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R48" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="S48" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="T48" s="44"/>
-      <c r="U48" s="44"/>
-      <c r="V48" s="44"/>
-      <c r="W48" s="44"/>
-      <c r="X48" s="44"/>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="44"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="35">
-        <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="27">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F49" s="38">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="G49" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="K49" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="M49" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N49" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="O49" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P49" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q49" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R49" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="S49" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="T49" s="44"/>
-      <c r="U49" s="44"/>
-      <c r="V49" s="44"/>
-      <c r="W49" s="44"/>
-      <c r="X49" s="44"/>
-      <c r="Y49" s="44"/>
-      <c r="Z49" s="44"/>
-      <c r="AA49" s="44"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="35">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="B50" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="27">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F50" s="38">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
       <c r="G50" s="29" t="s">
         <v>20</v>
       </c>
@@ -4716,10 +4977,10 @@
       <c r="L50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M50" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N50" s="40" t="s">
+      <c r="M50" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O50" s="29" t="s">
@@ -4728,33 +4989,39 @@
       <c r="P50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q50" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R50" s="41" t="s">
+      <c r="Q50" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S50" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T50" s="44"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
-      <c r="X50" s="44"/>
-      <c r="Y50" s="44"/>
-      <c r="Z50" s="44"/>
-      <c r="AA50" s="44"/>
+      <c r="T50" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="U50" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V50" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W50" s="45"/>
+      <c r="X50" s="45"/>
+      <c r="Y50" s="45"/>
+      <c r="Z50" s="45"/>
+      <c r="AA50" s="45"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="35">
+      <c r="A51" s="36">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="38" t="s">
         <v>109</v>
       </c>
       <c r="D51" s="26" t="s">
@@ -4764,9 +5031,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F51" s="38">
+      <c r="F51" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>21</v>
@@ -4786,10 +5053,10 @@
       <c r="L51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M51" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N51" s="40" t="s">
+      <c r="M51" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O51" s="29" t="s">
@@ -4798,33 +5065,39 @@
       <c r="P51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R51" s="41" t="s">
+      <c r="Q51" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S51" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="T51" s="44"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
-      <c r="X51" s="44"/>
-      <c r="Y51" s="44"/>
-      <c r="Z51" s="44"/>
-      <c r="AA51" s="44"/>
+      <c r="T51" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U51" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V51" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W51" s="45"/>
+      <c r="X51" s="45"/>
+      <c r="Y51" s="45"/>
+      <c r="Z51" s="45"/>
+      <c r="AA51" s="45"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="35">
+      <c r="A52" s="36">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="37" t="s">
+      <c r="C52" s="38" t="s">
         <v>111</v>
       </c>
       <c r="D52" s="26" t="s">
@@ -4834,9 +5107,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F52" s="38">
+      <c r="F52" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>20</v>
@@ -4856,10 +5129,10 @@
       <c r="L52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M52" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N52" s="40" t="s">
+      <c r="M52" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="41" t="s">
         <v>21</v>
       </c>
       <c r="O52" s="29" t="s">
@@ -4868,33 +5141,39 @@
       <c r="P52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q52" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R52" s="41" t="s">
+      <c r="Q52" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S52" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T52" s="44"/>
-      <c r="U52" s="44"/>
-      <c r="V52" s="44"/>
-      <c r="W52" s="44"/>
-      <c r="X52" s="44"/>
-      <c r="Y52" s="44"/>
-      <c r="Z52" s="44"/>
-      <c r="AA52" s="44"/>
+      <c r="T52" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U52" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V52" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W52" s="45"/>
+      <c r="X52" s="45"/>
+      <c r="Y52" s="45"/>
+      <c r="Z52" s="45"/>
+      <c r="AA52" s="45"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="35">
+      <c r="A53" s="36">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="37" t="s">
+      <c r="C53" s="38" t="s">
         <v>113</v>
       </c>
       <c r="D53" s="26" t="s">
@@ -4904,9 +5183,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F53" s="38">
+      <c r="F53" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>20</v>
@@ -4926,10 +5205,10 @@
       <c r="L53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M53" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N53" s="40" t="s">
+      <c r="M53" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O53" s="29" t="s">
@@ -4938,33 +5217,39 @@
       <c r="P53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q53" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R53" s="41" t="s">
+      <c r="Q53" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R53" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S53" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T53" s="44"/>
-      <c r="U53" s="44"/>
-      <c r="V53" s="44"/>
-      <c r="W53" s="44"/>
-      <c r="X53" s="44"/>
-      <c r="Y53" s="44"/>
-      <c r="Z53" s="44"/>
-      <c r="AA53" s="44"/>
+      <c r="T53" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U53" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V53" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W53" s="45"/>
+      <c r="X53" s="45"/>
+      <c r="Y53" s="45"/>
+      <c r="Z53" s="45"/>
+      <c r="AA53" s="45"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="35">
+      <c r="A54" s="36">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="38" t="s">
         <v>115</v>
       </c>
       <c r="D54" s="26" t="s">
@@ -4974,9 +5259,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F54" s="38">
+      <c r="F54" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>20</v>
@@ -4996,10 +5281,10 @@
       <c r="L54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M54" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N54" s="40" t="s">
+      <c r="M54" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O54" s="29" t="s">
@@ -5008,33 +5293,39 @@
       <c r="P54" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q54" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R54" s="41" t="s">
+      <c r="Q54" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S54" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="T54" s="44"/>
-      <c r="U54" s="44"/>
-      <c r="V54" s="44"/>
-      <c r="W54" s="44"/>
-      <c r="X54" s="44"/>
-      <c r="Y54" s="44"/>
-      <c r="Z54" s="44"/>
-      <c r="AA54" s="44"/>
+      <c r="T54" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U54" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V54" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W54" s="45"/>
+      <c r="X54" s="45"/>
+      <c r="Y54" s="45"/>
+      <c r="Z54" s="45"/>
+      <c r="AA54" s="45"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="35">
+      <c r="A55" s="36">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="37" t="s">
+      <c r="C55" s="38" t="s">
         <v>117</v>
       </c>
       <c r="D55" s="26" t="s">
@@ -5042,11 +5333,11 @@
       </c>
       <c r="E55" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F55" s="38">
+        <v>3</v>
+      </c>
+      <c r="F55" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>20</v>
@@ -5066,10 +5357,10 @@
       <c r="L55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M55" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N55" s="40" t="s">
+      <c r="M55" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O55" s="29" t="s">
@@ -5078,33 +5369,39 @@
       <c r="P55" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q55" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R55" s="41" t="s">
+      <c r="Q55" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R55" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S55" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T55" s="44"/>
-      <c r="U55" s="44"/>
-      <c r="V55" s="44"/>
-      <c r="W55" s="44"/>
-      <c r="X55" s="44"/>
-      <c r="Y55" s="44"/>
-      <c r="Z55" s="44"/>
-      <c r="AA55" s="44"/>
+      <c r="T55" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="U55" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V55" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W55" s="45"/>
+      <c r="X55" s="45"/>
+      <c r="Y55" s="45"/>
+      <c r="Z55" s="45"/>
+      <c r="AA55" s="45"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="35">
+      <c r="A56" s="36">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="38" t="s">
         <v>119</v>
       </c>
       <c r="D56" s="26" t="s">
@@ -5112,11 +5409,11 @@
       </c>
       <c r="E56" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F56" s="38">
+        <v>2</v>
+      </c>
+      <c r="F56" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>20</v>
@@ -5136,10 +5433,10 @@
       <c r="L56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M56" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N56" s="40" t="s">
+      <c r="M56" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O56" s="29" t="s">
@@ -5148,33 +5445,39 @@
       <c r="P56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q56" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R56" s="41" t="s">
+      <c r="Q56" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R56" s="42" t="s">
         <v>21</v>
       </c>
       <c r="S56" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T56" s="44"/>
-      <c r="U56" s="44"/>
-      <c r="V56" s="44"/>
-      <c r="W56" s="44"/>
-      <c r="X56" s="44"/>
-      <c r="Y56" s="44"/>
-      <c r="Z56" s="44"/>
-      <c r="AA56" s="44"/>
+      <c r="T56" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U56" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="V56" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W56" s="45"/>
+      <c r="X56" s="45"/>
+      <c r="Y56" s="45"/>
+      <c r="Z56" s="45"/>
+      <c r="AA56" s="45"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="35">
+      <c r="A57" s="36">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="38" t="s">
         <v>121</v>
       </c>
       <c r="D57" s="26" t="s">
@@ -5184,9 +5487,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F57" s="38">
+      <c r="F57" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>20</v>
@@ -5206,10 +5509,10 @@
       <c r="L57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M57" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N57" s="40" t="s">
+      <c r="M57" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O57" s="29" t="s">
@@ -5218,33 +5521,39 @@
       <c r="P57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q57" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R57" s="41" t="s">
+      <c r="Q57" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="42" t="s">
         <v>21</v>
       </c>
       <c r="S57" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T57" s="44"/>
-      <c r="U57" s="44"/>
-      <c r="V57" s="44"/>
-      <c r="W57" s="44"/>
-      <c r="X57" s="44"/>
-      <c r="Y57" s="44"/>
-      <c r="Z57" s="44"/>
-      <c r="AA57" s="44"/>
+      <c r="T57" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U57" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V57" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W57" s="45"/>
+      <c r="X57" s="45"/>
+      <c r="Y57" s="45"/>
+      <c r="Z57" s="45"/>
+      <c r="AA57" s="45"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="35">
+      <c r="A58" s="36">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="C58" s="38" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="26" t="s">
@@ -5254,9 +5563,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F58" s="38">
+      <c r="F58" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G58" s="29" t="s">
         <v>20</v>
@@ -5276,10 +5585,10 @@
       <c r="L58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M58" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N58" s="40" t="s">
+      <c r="M58" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O58" s="29" t="s">
@@ -5288,33 +5597,39 @@
       <c r="P58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q58" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R58" s="41" t="s">
+      <c r="Q58" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="R58" s="42" t="s">
         <v>21</v>
       </c>
       <c r="S58" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="T58" s="44"/>
-      <c r="U58" s="44"/>
-      <c r="V58" s="44"/>
-      <c r="W58" s="44"/>
-      <c r="X58" s="44"/>
-      <c r="Y58" s="44"/>
-      <c r="Z58" s="44"/>
-      <c r="AA58" s="44"/>
+      <c r="T58" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U58" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V58" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W58" s="45"/>
+      <c r="X58" s="45"/>
+      <c r="Y58" s="45"/>
+      <c r="Z58" s="45"/>
+      <c r="AA58" s="45"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="35">
+      <c r="A59" s="36">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="37" t="s">
+      <c r="C59" s="38" t="s">
         <v>125</v>
       </c>
       <c r="D59" s="26" t="s">
@@ -5324,9 +5639,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F59" s="38">
+      <c r="F59" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>20</v>
@@ -5346,10 +5661,10 @@
       <c r="L59" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M59" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N59" s="40" t="s">
+      <c r="M59" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="41" t="s">
         <v>21</v>
       </c>
       <c r="O59" s="29" t="s">
@@ -5358,33 +5673,39 @@
       <c r="P59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q59" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R59" s="41" t="s">
+      <c r="Q59" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R59" s="42" t="s">
         <v>21</v>
       </c>
       <c r="S59" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T59" s="44"/>
-      <c r="U59" s="44"/>
-      <c r="V59" s="44"/>
-      <c r="W59" s="44"/>
-      <c r="X59" s="44"/>
-      <c r="Y59" s="44"/>
-      <c r="Z59" s="44"/>
-      <c r="AA59" s="44"/>
+      <c r="T59" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U59" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V59" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W59" s="45"/>
+      <c r="X59" s="45"/>
+      <c r="Y59" s="45"/>
+      <c r="Z59" s="45"/>
+      <c r="AA59" s="45"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="35">
+      <c r="A60" s="36">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C60" s="38" t="s">
         <v>127</v>
       </c>
       <c r="D60" s="26" t="s">
@@ -5394,9 +5715,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F60" s="38">
+      <c r="F60" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G60" s="29" t="s">
         <v>20</v>
@@ -5416,10 +5737,10 @@
       <c r="L60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M60" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N60" s="40" t="s">
+      <c r="M60" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O60" s="29" t="s">
@@ -5428,33 +5749,39 @@
       <c r="P60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q60" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R60" s="41" t="s">
+      <c r="Q60" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R60" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S60" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="T60" s="44"/>
-      <c r="U60" s="44"/>
-      <c r="V60" s="44"/>
-      <c r="W60" s="44"/>
-      <c r="X60" s="44"/>
-      <c r="Y60" s="44"/>
-      <c r="Z60" s="44"/>
-      <c r="AA60" s="44"/>
+      <c r="T60" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U60" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V60" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W60" s="45"/>
+      <c r="X60" s="45"/>
+      <c r="Y60" s="45"/>
+      <c r="Z60" s="45"/>
+      <c r="AA60" s="45"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="35">
+      <c r="A61" s="36">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="37" t="s">
+      <c r="C61" s="38" t="s">
         <v>129</v>
       </c>
       <c r="D61" s="26" t="s">
@@ -5464,9 +5791,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F61" s="38">
+      <c r="F61" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>20</v>
@@ -5486,10 +5813,10 @@
       <c r="L61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M61" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N61" s="40" t="s">
+      <c r="M61" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N61" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O61" s="29" t="s">
@@ -5498,33 +5825,39 @@
       <c r="P61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q61" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R61" s="41" t="s">
+      <c r="Q61" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R61" s="42" t="s">
         <v>21</v>
       </c>
       <c r="S61" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T61" s="44"/>
-      <c r="U61" s="44"/>
-      <c r="V61" s="44"/>
-      <c r="W61" s="44"/>
-      <c r="X61" s="44"/>
-      <c r="Y61" s="44"/>
-      <c r="Z61" s="44"/>
-      <c r="AA61" s="44"/>
+      <c r="T61" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U61" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V61" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W61" s="45"/>
+      <c r="X61" s="45"/>
+      <c r="Y61" s="45"/>
+      <c r="Z61" s="45"/>
+      <c r="AA61" s="45"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="35">
+      <c r="A62" s="36">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="37" t="s">
+      <c r="C62" s="38" t="s">
         <v>131</v>
       </c>
       <c r="D62" s="26" t="s">
@@ -5532,11 +5865,11 @@
       </c>
       <c r="E62" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F62" s="38">
+        <v>3</v>
+      </c>
+      <c r="F62" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G62" s="29" t="s">
         <v>20</v>
@@ -5556,10 +5889,10 @@
       <c r="L62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M62" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N62" s="40" t="s">
+      <c r="M62" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O62" s="29" t="s">
@@ -5568,33 +5901,39 @@
       <c r="P62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q62" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R62" s="41" t="s">
+      <c r="Q62" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S62" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="T62" s="44"/>
-      <c r="U62" s="44"/>
-      <c r="V62" s="44"/>
-      <c r="W62" s="44"/>
-      <c r="X62" s="44"/>
-      <c r="Y62" s="44"/>
-      <c r="Z62" s="44"/>
-      <c r="AA62" s="44"/>
+      <c r="T62" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="U62" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V62" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W62" s="45"/>
+      <c r="X62" s="45"/>
+      <c r="Y62" s="45"/>
+      <c r="Z62" s="45"/>
+      <c r="AA62" s="45"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="35">
+      <c r="A63" s="36">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="38" t="s">
         <v>133</v>
       </c>
       <c r="D63" s="26" t="s">
@@ -5604,289 +5943,313 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F63" s="38">
+      <c r="F63" s="39">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R63" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="S63" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T63" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U63" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V63" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W63" s="45"/>
+      <c r="X63" s="45"/>
+      <c r="Y63" s="45"/>
+      <c r="Z63" s="45"/>
+      <c r="AA63" s="45"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="36">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="27">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F64" s="39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="O64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q64" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="R64" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="S64" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T64" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="U64" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="V64" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W64" s="45"/>
+      <c r="X64" s="45"/>
+      <c r="Y64" s="45"/>
+      <c r="Z64" s="45"/>
+      <c r="AA64" s="45"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="36">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="27">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F65" s="39">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="G63" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H63" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I63" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J63" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="K63" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L63" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="M63" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N63" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="O63" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P63" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q63" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R63" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="S63" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="T63" s="44"/>
-      <c r="U63" s="44"/>
-      <c r="V63" s="44"/>
-      <c r="W63" s="44"/>
-      <c r="X63" s="44"/>
-      <c r="Y63" s="44"/>
-      <c r="Z63" s="44"/>
-      <c r="AA63" s="44"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="35">
+      <c r="G65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="O65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q65" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R65" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="S65" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T65" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U65" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="V65" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W65" s="45"/>
+      <c r="X65" s="45"/>
+      <c r="Y65" s="45"/>
+      <c r="Z65" s="45"/>
+      <c r="AA65" s="45"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="36">
         <f t="shared" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="B64" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="27">
+      <c r="E66" s="27">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="F64" s="38">
+        <v>7</v>
+      </c>
+      <c r="F66" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G64" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J64" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="K64" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L64" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="M64" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N64" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="O64" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="P64" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q64" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R64" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="S64" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="T64" s="44"/>
-      <c r="U64" s="44"/>
-      <c r="V64" s="44"/>
-      <c r="W64" s="44"/>
-      <c r="X64" s="44"/>
-      <c r="Y64" s="44"/>
-      <c r="Z64" s="44"/>
-      <c r="AA64" s="44"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="35">
+        <v>9</v>
+      </c>
+      <c r="G66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="O66" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P66" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q66" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="R66" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="S66" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T66" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U66" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V66" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W66" s="45"/>
+      <c r="X66" s="45"/>
+      <c r="Y66" s="45"/>
+      <c r="Z66" s="45"/>
+      <c r="AA66" s="45"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="36">
         <f t="shared" si="3"/>
-        <v>59</v>
-      </c>
-      <c r="B65" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="C65" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="D65" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="27">
+      <c r="E67" s="27">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F65" s="38">
+      <c r="F67" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G65" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I65" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J65" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="K65" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L65" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="M65" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O65" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P65" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q65" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R65" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="S65" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="T65" s="44"/>
-      <c r="U65" s="44"/>
-      <c r="V65" s="44"/>
-      <c r="W65" s="44"/>
-      <c r="X65" s="44"/>
-      <c r="Y65" s="44"/>
-      <c r="Z65" s="44"/>
-      <c r="AA65" s="44"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="35">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="B66" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="27">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F66" s="38">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G66" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I66" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J66" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="K66" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L66" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="M66" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N66" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="O66" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="P66" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q66" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R66" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="S66" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="T66" s="44"/>
-      <c r="U66" s="44"/>
-      <c r="V66" s="44"/>
-      <c r="W66" s="44"/>
-      <c r="X66" s="44"/>
-      <c r="Y66" s="44"/>
-      <c r="Z66" s="44"/>
-      <c r="AA66" s="44"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="35">
-        <f t="shared" si="3"/>
-        <v>61</v>
-      </c>
-      <c r="B67" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="27">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F67" s="38">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G67" s="29" t="s">
         <v>20</v>
@@ -5906,10 +6269,10 @@
       <c r="L67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M67" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N67" s="40" t="s">
+      <c r="M67" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" s="41" t="s">
         <v>21</v>
       </c>
       <c r="O67" s="29" t="s">
@@ -5918,33 +6281,39 @@
       <c r="P67" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q67" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R67" s="41" t="s">
+      <c r="Q67" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R67" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S67" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T67" s="44"/>
-      <c r="U67" s="44"/>
-      <c r="V67" s="44"/>
-      <c r="W67" s="44"/>
-      <c r="X67" s="44"/>
-      <c r="Y67" s="44"/>
-      <c r="Z67" s="44"/>
-      <c r="AA67" s="44"/>
+      <c r="T67" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U67" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V67" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W67" s="45"/>
+      <c r="X67" s="45"/>
+      <c r="Y67" s="45"/>
+      <c r="Z67" s="45"/>
+      <c r="AA67" s="45"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="35">
+      <c r="A68" s="36">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="37" t="s">
+      <c r="C68" s="38" t="s">
         <v>143</v>
       </c>
       <c r="D68" s="26" t="s">
@@ -5954,9 +6323,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F68" s="38">
+      <c r="F68" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G68" s="29" t="s">
         <v>20</v>
@@ -5976,10 +6345,10 @@
       <c r="L68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M68" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N68" s="40" t="s">
+      <c r="M68" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N68" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O68" s="29" t="s">
@@ -5988,33 +6357,39 @@
       <c r="P68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q68" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R68" s="41" t="s">
+      <c r="Q68" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R68" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S68" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T68" s="44"/>
-      <c r="U68" s="44"/>
-      <c r="V68" s="44"/>
-      <c r="W68" s="44"/>
-      <c r="X68" s="44"/>
-      <c r="Y68" s="44"/>
-      <c r="Z68" s="44"/>
-      <c r="AA68" s="44"/>
+      <c r="T68" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U68" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V68" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W68" s="45"/>
+      <c r="X68" s="45"/>
+      <c r="Y68" s="45"/>
+      <c r="Z68" s="45"/>
+      <c r="AA68" s="45"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="35">
+      <c r="A69" s="36">
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="37" t="s">
+      <c r="C69" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D69" s="26" t="s">
@@ -6024,9 +6399,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F69" s="38">
+      <c r="F69" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>20</v>
@@ -6046,10 +6421,10 @@
       <c r="L69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M69" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N69" s="40" t="s">
+      <c r="M69" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N69" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O69" s="29" t="s">
@@ -6058,33 +6433,39 @@
       <c r="P69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q69" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R69" s="41" t="s">
+      <c r="Q69" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R69" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S69" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T69" s="44"/>
-      <c r="U69" s="44"/>
-      <c r="V69" s="44"/>
-      <c r="W69" s="44"/>
-      <c r="X69" s="44"/>
-      <c r="Y69" s="44"/>
-      <c r="Z69" s="44"/>
-      <c r="AA69" s="44"/>
+      <c r="T69" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U69" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V69" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W69" s="45"/>
+      <c r="X69" s="45"/>
+      <c r="Y69" s="45"/>
+      <c r="Z69" s="45"/>
+      <c r="AA69" s="45"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="35">
+      <c r="A70" s="36">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="C70" s="38" t="s">
         <v>147</v>
       </c>
       <c r="D70" s="26" t="s">
@@ -6092,11 +6473,11 @@
       </c>
       <c r="E70" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F70" s="38">
+        <v>1</v>
+      </c>
+      <c r="F70" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G70" s="29" t="s">
         <v>20</v>
@@ -6116,10 +6497,10 @@
       <c r="L70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M70" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N70" s="40" t="s">
+      <c r="M70" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O70" s="29" t="s">
@@ -6128,33 +6509,39 @@
       <c r="P70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q70" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R70" s="41" t="s">
+      <c r="Q70" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R70" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S70" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T70" s="44"/>
-      <c r="U70" s="44"/>
-      <c r="V70" s="44"/>
-      <c r="W70" s="44"/>
-      <c r="X70" s="44"/>
-      <c r="Y70" s="44"/>
-      <c r="Z70" s="44"/>
-      <c r="AA70" s="44"/>
+      <c r="T70" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U70" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V70" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W70" s="45"/>
+      <c r="X70" s="45"/>
+      <c r="Y70" s="45"/>
+      <c r="Z70" s="45"/>
+      <c r="AA70" s="45"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="35">
+      <c r="A71" s="36">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C71" s="37" t="s">
+      <c r="C71" s="38" t="s">
         <v>149</v>
       </c>
       <c r="D71" s="26" t="s">
@@ -6162,11 +6549,11 @@
       </c>
       <c r="E71" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F71" s="38">
+        <v>4</v>
+      </c>
+      <c r="F71" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>20</v>
@@ -6186,10 +6573,10 @@
       <c r="L71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M71" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N71" s="40" t="s">
+      <c r="M71" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N71" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O71" s="29" t="s">
@@ -6198,33 +6585,39 @@
       <c r="P71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q71" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R71" s="41" t="s">
+      <c r="Q71" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="R71" s="42" t="s">
         <v>21</v>
       </c>
       <c r="S71" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T71" s="44"/>
-      <c r="U71" s="44"/>
-      <c r="V71" s="44"/>
-      <c r="W71" s="44"/>
-      <c r="X71" s="44"/>
-      <c r="Y71" s="44"/>
-      <c r="Z71" s="44"/>
-      <c r="AA71" s="44"/>
+      <c r="T71" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U71" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="V71" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W71" s="45"/>
+      <c r="X71" s="45"/>
+      <c r="Y71" s="45"/>
+      <c r="Z71" s="45"/>
+      <c r="AA71" s="45"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="35">
+      <c r="A72" s="36">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="C72" s="37" t="s">
+      <c r="C72" s="38" t="s">
         <v>151</v>
       </c>
       <c r="D72" s="26" t="s">
@@ -6234,9 +6627,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F72" s="38">
+      <c r="F72" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G72" s="29" t="s">
         <v>20</v>
@@ -6256,10 +6649,10 @@
       <c r="L72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M72" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N72" s="40" t="s">
+      <c r="M72" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N72" s="41" t="s">
         <v>21</v>
       </c>
       <c r="O72" s="29" t="s">
@@ -6268,33 +6661,39 @@
       <c r="P72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q72" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R72" s="41" t="s">
+      <c r="Q72" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R72" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S72" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T72" s="44"/>
-      <c r="U72" s="44"/>
-      <c r="V72" s="44"/>
-      <c r="W72" s="44"/>
-      <c r="X72" s="44"/>
-      <c r="Y72" s="44"/>
-      <c r="Z72" s="44"/>
-      <c r="AA72" s="44"/>
+      <c r="T72" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U72" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V72" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W72" s="45"/>
+      <c r="X72" s="45"/>
+      <c r="Y72" s="45"/>
+      <c r="Z72" s="45"/>
+      <c r="AA72" s="45"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="35">
+      <c r="A73" s="36">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="37" t="s">
+      <c r="C73" s="38" t="s">
         <v>153</v>
       </c>
       <c r="D73" s="26" t="s">
@@ -6304,9 +6703,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F73" s="38">
+      <c r="F73" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G73" s="29" t="s">
         <v>20</v>
@@ -6326,10 +6725,10 @@
       <c r="L73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M73" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N73" s="40" t="s">
+      <c r="M73" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O73" s="29" t="s">
@@ -6338,33 +6737,39 @@
       <c r="P73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q73" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R73" s="41" t="s">
+      <c r="Q73" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R73" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S73" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T73" s="44"/>
-      <c r="U73" s="44"/>
-      <c r="V73" s="44"/>
-      <c r="W73" s="44"/>
-      <c r="X73" s="44"/>
-      <c r="Y73" s="44"/>
-      <c r="Z73" s="44"/>
-      <c r="AA73" s="44"/>
+      <c r="T73" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U73" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V73" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W73" s="45"/>
+      <c r="X73" s="45"/>
+      <c r="Y73" s="45"/>
+      <c r="Z73" s="45"/>
+      <c r="AA73" s="45"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="35">
+      <c r="A74" s="36">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C74" s="37" t="s">
+      <c r="C74" s="38" t="s">
         <v>155</v>
       </c>
       <c r="D74" s="26" t="s">
@@ -6374,9 +6779,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F74" s="38">
+      <c r="F74" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G74" s="29" t="s">
         <v>20</v>
@@ -6396,10 +6801,10 @@
       <c r="L74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M74" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N74" s="40" t="s">
+      <c r="M74" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O74" s="29" t="s">
@@ -6408,33 +6813,39 @@
       <c r="P74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q74" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R74" s="41" t="s">
+      <c r="Q74" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="R74" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S74" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T74" s="44"/>
-      <c r="U74" s="44"/>
-      <c r="V74" s="44"/>
-      <c r="W74" s="44"/>
-      <c r="X74" s="44"/>
-      <c r="Y74" s="44"/>
-      <c r="Z74" s="44"/>
-      <c r="AA74" s="44"/>
+      <c r="T74" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U74" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V74" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W74" s="45"/>
+      <c r="X74" s="45"/>
+      <c r="Y74" s="45"/>
+      <c r="Z74" s="45"/>
+      <c r="AA74" s="45"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="35">
+      <c r="A75" s="36">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="C75" s="37" t="s">
+      <c r="C75" s="38" t="s">
         <v>157</v>
       </c>
       <c r="D75" s="26" t="s">
@@ -6444,9 +6855,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F75" s="38">
+      <c r="F75" s="39">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G75" s="29" t="s">
         <v>20</v>
@@ -6466,10 +6877,10 @@
       <c r="L75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M75" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N75" s="40" t="s">
+      <c r="M75" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N75" s="41" t="s">
         <v>21</v>
       </c>
       <c r="O75" s="29" t="s">
@@ -6478,33 +6889,39 @@
       <c r="P75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q75" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R75" s="41" t="s">
+      <c r="Q75" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R75" s="42" t="s">
         <v>21</v>
       </c>
       <c r="S75" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T75" s="44"/>
-      <c r="U75" s="44"/>
-      <c r="V75" s="44"/>
-      <c r="W75" s="44"/>
-      <c r="X75" s="44"/>
-      <c r="Y75" s="44"/>
-      <c r="Z75" s="44"/>
-      <c r="AA75" s="44"/>
+      <c r="T75" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U75" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V75" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W75" s="45"/>
+      <c r="X75" s="45"/>
+      <c r="Y75" s="45"/>
+      <c r="Z75" s="45"/>
+      <c r="AA75" s="45"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="35">
+      <c r="A76" s="36">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="37" t="s">
+      <c r="C76" s="38" t="s">
         <v>159</v>
       </c>
       <c r="D76" s="26" t="s">
@@ -6512,11 +6929,11 @@
       </c>
       <c r="E76" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F76" s="38">
+        <v>4</v>
+      </c>
+      <c r="F76" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G76" s="29" t="s">
         <v>20</v>
@@ -6536,10 +6953,10 @@
       <c r="L76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M76" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N76" s="40" t="s">
+      <c r="M76" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O76" s="31" t="s">
@@ -6548,33 +6965,39 @@
       <c r="P76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q76" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R76" s="41" t="s">
+      <c r="Q76" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R76" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S76" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T76" s="44"/>
-      <c r="U76" s="44"/>
-      <c r="V76" s="44"/>
-      <c r="W76" s="44"/>
-      <c r="X76" s="44"/>
-      <c r="Y76" s="44"/>
-      <c r="Z76" s="44"/>
-      <c r="AA76" s="44"/>
+      <c r="T76" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U76" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V76" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W76" s="45"/>
+      <c r="X76" s="45"/>
+      <c r="Y76" s="45"/>
+      <c r="Z76" s="45"/>
+      <c r="AA76" s="45"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="35">
+      <c r="A77" s="36">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="C77" s="37" t="s">
+      <c r="C77" s="38" t="s">
         <v>161</v>
       </c>
       <c r="D77" s="26" t="s">
@@ -6582,12 +7005,12 @@
       </c>
       <c r="E77" s="27">
         <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F77" s="39">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F77" s="38">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
       <c r="G77" s="29" t="s">
         <v>20</v>
       </c>
@@ -6600,16 +7023,16 @@
       <c r="J77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K77" s="45" t="s">
-        <v>20</v>
+      <c r="K77" s="46" t="s">
+        <v>21</v>
       </c>
       <c r="L77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M77" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N77" s="40" t="s">
+      <c r="M77" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N77" s="41" t="s">
         <v>21</v>
       </c>
       <c r="O77" s="29" t="s">
@@ -6618,33 +7041,39 @@
       <c r="P77" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q77" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R77" s="41" t="s">
+      <c r="Q77" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R77" s="42" t="s">
         <v>21</v>
       </c>
       <c r="S77" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="T77" s="44"/>
-      <c r="U77" s="44"/>
-      <c r="V77" s="44"/>
-      <c r="W77" s="44"/>
-      <c r="X77" s="44"/>
-      <c r="Y77" s="44"/>
-      <c r="Z77" s="44"/>
-      <c r="AA77" s="44"/>
+      <c r="T77" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U77" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="V77" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W77" s="45"/>
+      <c r="X77" s="45"/>
+      <c r="Y77" s="45"/>
+      <c r="Z77" s="45"/>
+      <c r="AA77" s="45"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="35">
+      <c r="A78" s="36">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="C78" s="37" t="s">
+      <c r="C78" s="38" t="s">
         <v>163</v>
       </c>
       <c r="D78" s="26" t="s">
@@ -6654,9 +7083,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F78" s="38">
+      <c r="F78" s="39">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G78" s="29" t="s">
         <v>20</v>
@@ -6676,10 +7105,10 @@
       <c r="L78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M78" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N78" s="40" t="s">
+      <c r="M78" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N78" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O78" s="29" t="s">
@@ -6688,33 +7117,39 @@
       <c r="P78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q78" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R78" s="41" t="s">
+      <c r="Q78" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R78" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S78" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T78" s="44"/>
-      <c r="U78" s="44"/>
-      <c r="V78" s="44"/>
-      <c r="W78" s="44"/>
-      <c r="X78" s="44"/>
-      <c r="Y78" s="44"/>
-      <c r="Z78" s="44"/>
-      <c r="AA78" s="44"/>
+      <c r="T78" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U78" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V78" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W78" s="45"/>
+      <c r="X78" s="45"/>
+      <c r="Y78" s="45"/>
+      <c r="Z78" s="45"/>
+      <c r="AA78" s="45"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="35">
+      <c r="A79" s="36">
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
-      <c r="B79" s="36" t="s">
+      <c r="B79" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="C79" s="37" t="s">
+      <c r="C79" s="38" t="s">
         <v>165</v>
       </c>
       <c r="D79" s="26" t="s">
@@ -6724,9 +7159,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F79" s="38">
+      <c r="F79" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G79" s="29" t="s">
         <v>21</v>
@@ -6746,10 +7181,10 @@
       <c r="L79" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M79" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N79" s="40" t="s">
+      <c r="M79" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N79" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O79" s="29" t="s">
@@ -6758,33 +7193,39 @@
       <c r="P79" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q79" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R79" s="41" t="s">
+      <c r="Q79" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R79" s="42" t="s">
         <v>21</v>
       </c>
       <c r="S79" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T79" s="44"/>
-      <c r="U79" s="44"/>
-      <c r="V79" s="44"/>
-      <c r="W79" s="44"/>
-      <c r="X79" s="44"/>
-      <c r="Y79" s="44"/>
-      <c r="Z79" s="44"/>
-      <c r="AA79" s="44"/>
+      <c r="T79" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U79" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V79" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W79" s="45"/>
+      <c r="X79" s="45"/>
+      <c r="Y79" s="45"/>
+      <c r="Z79" s="45"/>
+      <c r="AA79" s="45"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="35">
+      <c r="A80" s="36">
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="B80" s="36" t="s">
+      <c r="B80" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="C80" s="37" t="s">
+      <c r="C80" s="38" t="s">
         <v>167</v>
       </c>
       <c r="D80" s="26" t="s">
@@ -6794,9 +7235,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F80" s="38">
+      <c r="F80" s="39">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G80" s="29" t="s">
         <v>20</v>
@@ -6816,10 +7257,10 @@
       <c r="L80" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M80" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N80" s="49" t="s">
+      <c r="M80" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80" s="50" t="s">
         <v>21</v>
       </c>
       <c r="O80" s="29" t="s">
@@ -6828,33 +7269,39 @@
       <c r="P80" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q80" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R80" s="41" t="s">
+      <c r="Q80" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R80" s="42" t="s">
         <v>21</v>
       </c>
       <c r="S80" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T80" s="44"/>
-      <c r="U80" s="44"/>
-      <c r="V80" s="44"/>
-      <c r="W80" s="44"/>
-      <c r="X80" s="44"/>
-      <c r="Y80" s="44"/>
-      <c r="Z80" s="44"/>
-      <c r="AA80" s="44"/>
+      <c r="T80" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U80" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V80" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W80" s="45"/>
+      <c r="X80" s="45"/>
+      <c r="Y80" s="45"/>
+      <c r="Z80" s="45"/>
+      <c r="AA80" s="45"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="35">
+      <c r="A81" s="36">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="C81" s="37" t="s">
+      <c r="C81" s="38" t="s">
         <v>169</v>
       </c>
       <c r="D81" s="26" t="s">
@@ -6864,9 +7311,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F81" s="38">
+      <c r="F81" s="39">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G81" s="29" t="s">
         <v>21</v>
@@ -6886,10 +7333,10 @@
       <c r="L81" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M81" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N81" s="40" t="s">
+      <c r="M81" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N81" s="41" t="s">
         <v>21</v>
       </c>
       <c r="O81" s="29" t="s">
@@ -6898,33 +7345,39 @@
       <c r="P81" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q81" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R81" s="41" t="s">
+      <c r="Q81" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R81" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S81" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T81" s="44"/>
-      <c r="U81" s="44"/>
-      <c r="V81" s="44"/>
-      <c r="W81" s="44"/>
-      <c r="X81" s="44"/>
-      <c r="Y81" s="44"/>
-      <c r="Z81" s="44"/>
-      <c r="AA81" s="44"/>
+      <c r="T81" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U81" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V81" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W81" s="45"/>
+      <c r="X81" s="45"/>
+      <c r="Y81" s="45"/>
+      <c r="Z81" s="45"/>
+      <c r="AA81" s="45"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="35">
+      <c r="A82" s="36">
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="B82" s="36" t="s">
+      <c r="B82" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C82" s="37" t="s">
+      <c r="C82" s="38" t="s">
         <v>171</v>
       </c>
       <c r="D82" s="26" t="s">
@@ -6934,9 +7387,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F82" s="38">
+      <c r="F82" s="39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G82" s="29" t="s">
         <v>20</v>
@@ -6956,10 +7409,10 @@
       <c r="L82" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M82" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N82" s="40" t="s">
+      <c r="M82" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N82" s="41" t="s">
         <v>20</v>
       </c>
       <c r="O82" s="29" t="s">
@@ -6968,517 +7421,523 @@
       <c r="P82" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q82" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="R82" s="41" t="s">
+      <c r="Q82" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="R82" s="42" t="s">
         <v>20</v>
       </c>
       <c r="S82" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T82" s="44"/>
-      <c r="U82" s="44"/>
-      <c r="V82" s="44"/>
-      <c r="W82" s="44"/>
-      <c r="X82" s="44"/>
-      <c r="Y82" s="44"/>
-      <c r="Z82" s="44"/>
-      <c r="AA82" s="44"/>
+      <c r="T82" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="U82" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V82" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="W82" s="45"/>
+      <c r="X82" s="45"/>
+      <c r="Y82" s="45"/>
+      <c r="Z82" s="45"/>
+      <c r="AA82" s="45"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="35" t="str">
+      <c r="A83" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B83" s="36"/>
-      <c r="C83" s="37"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="38"/>
       <c r="D83" s="27"/>
       <c r="E83" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F83" s="38" t="str">
+      <c r="F83" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G83" s="50"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
-      <c r="J83" s="44"/>
-      <c r="K83" s="44"/>
-      <c r="L83" s="44"/>
-      <c r="M83" s="44"/>
-      <c r="N83" s="44"/>
-      <c r="O83" s="44"/>
-      <c r="P83" s="44"/>
-      <c r="Q83" s="44"/>
-      <c r="R83" s="44"/>
-      <c r="S83" s="44"/>
-      <c r="T83" s="44"/>
-      <c r="U83" s="44"/>
-      <c r="V83" s="44"/>
-      <c r="W83" s="44"/>
-      <c r="X83" s="44"/>
-      <c r="Y83" s="44"/>
-      <c r="Z83" s="44"/>
-      <c r="AA83" s="44"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="45"/>
+      <c r="I83" s="45"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="45"/>
+      <c r="L83" s="45"/>
+      <c r="M83" s="45"/>
+      <c r="N83" s="45"/>
+      <c r="O83" s="45"/>
+      <c r="P83" s="45"/>
+      <c r="Q83" s="45"/>
+      <c r="R83" s="45"/>
+      <c r="S83" s="45"/>
+      <c r="T83" s="45"/>
+      <c r="U83" s="45"/>
+      <c r="V83" s="45"/>
+      <c r="W83" s="45"/>
+      <c r="X83" s="45"/>
+      <c r="Y83" s="45"/>
+      <c r="Z83" s="45"/>
+      <c r="AA83" s="45"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="35" t="str">
+      <c r="A84" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="37"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="38"/>
       <c r="D84" s="27"/>
       <c r="E84" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F84" s="38" t="str">
+      <c r="F84" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G84" s="50"/>
-      <c r="H84" s="44"/>
-      <c r="I84" s="44"/>
-      <c r="J84" s="44"/>
-      <c r="K84" s="44"/>
-      <c r="L84" s="44"/>
-      <c r="M84" s="44"/>
-      <c r="N84" s="44"/>
-      <c r="O84" s="44"/>
-      <c r="P84" s="44"/>
-      <c r="Q84" s="44"/>
-      <c r="R84" s="44"/>
-      <c r="S84" s="44"/>
-      <c r="T84" s="44"/>
-      <c r="U84" s="44"/>
-      <c r="V84" s="44"/>
-      <c r="W84" s="44"/>
-      <c r="X84" s="44"/>
-      <c r="Y84" s="44"/>
-      <c r="Z84" s="44"/>
-      <c r="AA84" s="44"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="45"/>
+      <c r="J84" s="45"/>
+      <c r="K84" s="45"/>
+      <c r="L84" s="45"/>
+      <c r="M84" s="45"/>
+      <c r="N84" s="45"/>
+      <c r="O84" s="45"/>
+      <c r="P84" s="45"/>
+      <c r="Q84" s="45"/>
+      <c r="R84" s="45"/>
+      <c r="S84" s="45"/>
+      <c r="T84" s="45"/>
+      <c r="U84" s="45"/>
+      <c r="V84" s="45"/>
+      <c r="W84" s="45"/>
+      <c r="X84" s="45"/>
+      <c r="Y84" s="45"/>
+      <c r="Z84" s="45"/>
+      <c r="AA84" s="45"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="35" t="str">
+      <c r="A85" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B85" s="51"/>
-      <c r="C85" s="51"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="52"/>
       <c r="D85" s="27"/>
       <c r="E85" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F85" s="38" t="str">
+      <c r="F85" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G85" s="50"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="44"/>
-      <c r="K85" s="44"/>
-      <c r="L85" s="44"/>
-      <c r="M85" s="44"/>
-      <c r="N85" s="44"/>
-      <c r="O85" s="44"/>
-      <c r="P85" s="44"/>
-      <c r="Q85" s="44"/>
-      <c r="R85" s="44"/>
-      <c r="S85" s="44"/>
-      <c r="T85" s="44"/>
-      <c r="U85" s="44"/>
-      <c r="V85" s="44"/>
-      <c r="W85" s="44"/>
-      <c r="X85" s="44"/>
-      <c r="Y85" s="44"/>
-      <c r="Z85" s="44"/>
-      <c r="AA85" s="44"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="45"/>
+      <c r="J85" s="45"/>
+      <c r="K85" s="45"/>
+      <c r="L85" s="45"/>
+      <c r="M85" s="45"/>
+      <c r="N85" s="45"/>
+      <c r="O85" s="45"/>
+      <c r="P85" s="45"/>
+      <c r="Q85" s="45"/>
+      <c r="R85" s="45"/>
+      <c r="S85" s="45"/>
+      <c r="T85" s="45"/>
+      <c r="U85" s="45"/>
+      <c r="V85" s="45"/>
+      <c r="W85" s="45"/>
+      <c r="X85" s="45"/>
+      <c r="Y85" s="45"/>
+      <c r="Z85" s="45"/>
+      <c r="AA85" s="45"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="35" t="str">
+      <c r="A86" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="52"/>
       <c r="D86" s="27"/>
       <c r="E86" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F86" s="38" t="str">
+      <c r="F86" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G86" s="50"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="44"/>
-      <c r="J86" s="44"/>
-      <c r="K86" s="44"/>
-      <c r="L86" s="44"/>
-      <c r="M86" s="44"/>
-      <c r="N86" s="44"/>
-      <c r="O86" s="44"/>
-      <c r="P86" s="44"/>
-      <c r="Q86" s="44"/>
-      <c r="R86" s="44"/>
-      <c r="S86" s="44"/>
-      <c r="T86" s="44"/>
-      <c r="U86" s="44"/>
-      <c r="V86" s="44"/>
-      <c r="W86" s="44"/>
-      <c r="X86" s="44"/>
-      <c r="Y86" s="44"/>
-      <c r="Z86" s="44"/>
-      <c r="AA86" s="44"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="45"/>
+      <c r="L86" s="45"/>
+      <c r="M86" s="45"/>
+      <c r="N86" s="45"/>
+      <c r="O86" s="45"/>
+      <c r="P86" s="45"/>
+      <c r="Q86" s="45"/>
+      <c r="R86" s="45"/>
+      <c r="S86" s="45"/>
+      <c r="T86" s="45"/>
+      <c r="U86" s="45"/>
+      <c r="V86" s="45"/>
+      <c r="W86" s="45"/>
+      <c r="X86" s="45"/>
+      <c r="Y86" s="45"/>
+      <c r="Z86" s="45"/>
+      <c r="AA86" s="45"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="35" t="str">
+      <c r="A87" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B87" s="51"/>
-      <c r="C87" s="51"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
       <c r="D87" s="27"/>
       <c r="E87" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F87" s="38" t="str">
+      <c r="F87" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G87" s="50"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="44"/>
-      <c r="K87" s="44"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="44"/>
-      <c r="N87" s="44"/>
-      <c r="O87" s="44"/>
-      <c r="P87" s="44"/>
-      <c r="Q87" s="44"/>
-      <c r="R87" s="44"/>
-      <c r="S87" s="44"/>
-      <c r="T87" s="44"/>
-      <c r="U87" s="44"/>
-      <c r="V87" s="44"/>
-      <c r="W87" s="44"/>
-      <c r="X87" s="44"/>
-      <c r="Y87" s="44"/>
-      <c r="Z87" s="44"/>
-      <c r="AA87" s="44"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="45"/>
+      <c r="K87" s="45"/>
+      <c r="L87" s="45"/>
+      <c r="M87" s="45"/>
+      <c r="N87" s="45"/>
+      <c r="O87" s="45"/>
+      <c r="P87" s="45"/>
+      <c r="Q87" s="45"/>
+      <c r="R87" s="45"/>
+      <c r="S87" s="45"/>
+      <c r="T87" s="45"/>
+      <c r="U87" s="45"/>
+      <c r="V87" s="45"/>
+      <c r="W87" s="45"/>
+      <c r="X87" s="45"/>
+      <c r="Y87" s="45"/>
+      <c r="Z87" s="45"/>
+      <c r="AA87" s="45"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="35" t="str">
+      <c r="A88" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B88" s="51"/>
-      <c r="C88" s="51"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="52"/>
       <c r="D88" s="27"/>
       <c r="E88" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F88" s="38" t="str">
+      <c r="F88" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G88" s="50"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="44"/>
-      <c r="K88" s="44"/>
-      <c r="L88" s="44"/>
-      <c r="M88" s="44"/>
-      <c r="N88" s="44"/>
-      <c r="O88" s="44"/>
-      <c r="P88" s="44"/>
-      <c r="Q88" s="44"/>
-      <c r="R88" s="44"/>
-      <c r="S88" s="44"/>
-      <c r="T88" s="44"/>
-      <c r="U88" s="44"/>
-      <c r="V88" s="44"/>
-      <c r="W88" s="44"/>
-      <c r="X88" s="44"/>
-      <c r="Y88" s="44"/>
-      <c r="Z88" s="44"/>
-      <c r="AA88" s="44"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="45"/>
+      <c r="K88" s="45"/>
+      <c r="L88" s="45"/>
+      <c r="M88" s="45"/>
+      <c r="N88" s="45"/>
+      <c r="O88" s="45"/>
+      <c r="P88" s="45"/>
+      <c r="Q88" s="45"/>
+      <c r="R88" s="45"/>
+      <c r="S88" s="45"/>
+      <c r="T88" s="45"/>
+      <c r="U88" s="45"/>
+      <c r="V88" s="45"/>
+      <c r="W88" s="45"/>
+      <c r="X88" s="45"/>
+      <c r="Y88" s="45"/>
+      <c r="Z88" s="45"/>
+      <c r="AA88" s="45"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="35" t="str">
+      <c r="A89" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B89" s="51"/>
-      <c r="C89" s="51"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="52"/>
       <c r="D89" s="27"/>
       <c r="E89" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F89" s="38" t="str">
+      <c r="F89" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G89" s="50"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="44"/>
-      <c r="J89" s="44"/>
-      <c r="K89" s="44"/>
-      <c r="L89" s="44"/>
-      <c r="M89" s="44"/>
-      <c r="N89" s="44"/>
-      <c r="O89" s="44"/>
-      <c r="P89" s="44"/>
-      <c r="Q89" s="44"/>
-      <c r="R89" s="44"/>
-      <c r="S89" s="44"/>
-      <c r="T89" s="44"/>
-      <c r="U89" s="44"/>
-      <c r="V89" s="44"/>
-      <c r="W89" s="44"/>
-      <c r="X89" s="44"/>
-      <c r="Y89" s="44"/>
-      <c r="Z89" s="44"/>
-      <c r="AA89" s="44"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="45"/>
+      <c r="I89" s="45"/>
+      <c r="J89" s="45"/>
+      <c r="K89" s="45"/>
+      <c r="L89" s="45"/>
+      <c r="M89" s="45"/>
+      <c r="N89" s="45"/>
+      <c r="O89" s="45"/>
+      <c r="P89" s="45"/>
+      <c r="Q89" s="45"/>
+      <c r="R89" s="45"/>
+      <c r="S89" s="45"/>
+      <c r="T89" s="45"/>
+      <c r="U89" s="45"/>
+      <c r="V89" s="45"/>
+      <c r="W89" s="45"/>
+      <c r="X89" s="45"/>
+      <c r="Y89" s="45"/>
+      <c r="Z89" s="45"/>
+      <c r="AA89" s="45"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="35" t="str">
+      <c r="A90" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B90" s="51"/>
-      <c r="C90" s="51"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="52"/>
       <c r="D90" s="27"/>
       <c r="E90" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F90" s="38" t="str">
+      <c r="F90" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G90" s="50"/>
-      <c r="H90" s="44"/>
-      <c r="I90" s="44"/>
-      <c r="J90" s="44"/>
-      <c r="K90" s="44"/>
-      <c r="L90" s="44"/>
-      <c r="M90" s="44"/>
-      <c r="N90" s="44"/>
-      <c r="O90" s="44"/>
-      <c r="P90" s="44"/>
-      <c r="Q90" s="44"/>
-      <c r="R90" s="44"/>
-      <c r="S90" s="44"/>
-      <c r="T90" s="44"/>
-      <c r="U90" s="44"/>
-      <c r="V90" s="44"/>
-      <c r="W90" s="44"/>
-      <c r="X90" s="44"/>
-      <c r="Y90" s="44"/>
-      <c r="Z90" s="44"/>
-      <c r="AA90" s="44"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="45"/>
+      <c r="K90" s="45"/>
+      <c r="L90" s="45"/>
+      <c r="M90" s="45"/>
+      <c r="N90" s="45"/>
+      <c r="O90" s="45"/>
+      <c r="P90" s="45"/>
+      <c r="Q90" s="45"/>
+      <c r="R90" s="45"/>
+      <c r="S90" s="45"/>
+      <c r="T90" s="45"/>
+      <c r="U90" s="45"/>
+      <c r="V90" s="45"/>
+      <c r="W90" s="45"/>
+      <c r="X90" s="45"/>
+      <c r="Y90" s="45"/>
+      <c r="Z90" s="45"/>
+      <c r="AA90" s="45"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="35" t="str">
+      <c r="A91" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B91" s="51"/>
-      <c r="C91" s="51"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="52"/>
       <c r="D91" s="27"/>
       <c r="E91" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F91" s="38" t="str">
+      <c r="F91" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G91" s="50"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="44"/>
-      <c r="K91" s="44"/>
-      <c r="L91" s="44"/>
-      <c r="M91" s="44"/>
-      <c r="N91" s="44"/>
-      <c r="O91" s="44"/>
-      <c r="P91" s="44"/>
-      <c r="Q91" s="44"/>
-      <c r="R91" s="44"/>
-      <c r="S91" s="44"/>
-      <c r="T91" s="44"/>
-      <c r="U91" s="44"/>
-      <c r="V91" s="44"/>
-      <c r="W91" s="44"/>
-      <c r="X91" s="44"/>
-      <c r="Y91" s="44"/>
-      <c r="Z91" s="44"/>
-      <c r="AA91" s="44"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="45"/>
+      <c r="K91" s="45"/>
+      <c r="L91" s="45"/>
+      <c r="M91" s="45"/>
+      <c r="N91" s="45"/>
+      <c r="O91" s="45"/>
+      <c r="P91" s="45"/>
+      <c r="Q91" s="45"/>
+      <c r="R91" s="45"/>
+      <c r="S91" s="45"/>
+      <c r="T91" s="45"/>
+      <c r="U91" s="45"/>
+      <c r="V91" s="45"/>
+      <c r="W91" s="45"/>
+      <c r="X91" s="45"/>
+      <c r="Y91" s="45"/>
+      <c r="Z91" s="45"/>
+      <c r="AA91" s="45"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="35" t="str">
+      <c r="A92" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B92" s="51"/>
-      <c r="C92" s="51"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="52"/>
       <c r="D92" s="27"/>
       <c r="E92" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F92" s="38" t="str">
+      <c r="F92" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G92" s="50"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="44"/>
-      <c r="J92" s="44"/>
-      <c r="K92" s="44"/>
-      <c r="L92" s="44"/>
-      <c r="M92" s="44"/>
-      <c r="N92" s="44"/>
-      <c r="O92" s="44"/>
-      <c r="P92" s="44"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="44"/>
-      <c r="S92" s="44"/>
-      <c r="T92" s="44"/>
-      <c r="U92" s="44"/>
-      <c r="V92" s="44"/>
-      <c r="W92" s="44"/>
-      <c r="X92" s="44"/>
-      <c r="Y92" s="44"/>
-      <c r="Z92" s="44"/>
-      <c r="AA92" s="44"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
+      <c r="J92" s="45"/>
+      <c r="K92" s="45"/>
+      <c r="L92" s="45"/>
+      <c r="M92" s="45"/>
+      <c r="N92" s="45"/>
+      <c r="O92" s="45"/>
+      <c r="P92" s="45"/>
+      <c r="Q92" s="45"/>
+      <c r="R92" s="45"/>
+      <c r="S92" s="45"/>
+      <c r="T92" s="45"/>
+      <c r="U92" s="45"/>
+      <c r="V92" s="45"/>
+      <c r="W92" s="45"/>
+      <c r="X92" s="45"/>
+      <c r="Y92" s="45"/>
+      <c r="Z92" s="45"/>
+      <c r="AA92" s="45"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="35" t="str">
+      <c r="A93" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B93" s="51"/>
-      <c r="C93" s="51"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="52"/>
       <c r="D93" s="27"/>
       <c r="E93" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F93" s="38" t="str">
+      <c r="F93" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G93" s="50"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="44"/>
-      <c r="J93" s="44"/>
-      <c r="K93" s="44"/>
-      <c r="L93" s="44"/>
-      <c r="M93" s="44"/>
-      <c r="N93" s="44"/>
-      <c r="O93" s="44"/>
-      <c r="P93" s="44"/>
-      <c r="Q93" s="44"/>
-      <c r="R93" s="44"/>
-      <c r="S93" s="44"/>
-      <c r="T93" s="44"/>
-      <c r="U93" s="44"/>
-      <c r="V93" s="44"/>
-      <c r="W93" s="44"/>
-      <c r="X93" s="44"/>
-      <c r="Y93" s="44"/>
-      <c r="Z93" s="44"/>
-      <c r="AA93" s="44"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="45"/>
+      <c r="I93" s="45"/>
+      <c r="J93" s="45"/>
+      <c r="K93" s="45"/>
+      <c r="L93" s="45"/>
+      <c r="M93" s="45"/>
+      <c r="N93" s="45"/>
+      <c r="O93" s="45"/>
+      <c r="P93" s="45"/>
+      <c r="Q93" s="45"/>
+      <c r="R93" s="45"/>
+      <c r="S93" s="45"/>
+      <c r="T93" s="45"/>
+      <c r="U93" s="45"/>
+      <c r="V93" s="45"/>
+      <c r="W93" s="45"/>
+      <c r="X93" s="45"/>
+      <c r="Y93" s="45"/>
+      <c r="Z93" s="45"/>
+      <c r="AA93" s="45"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="35" t="str">
+      <c r="A94" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B94" s="51"/>
-      <c r="C94" s="51"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="52"/>
       <c r="D94" s="27"/>
       <c r="E94" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F94" s="38" t="str">
+      <c r="F94" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G94" s="50"/>
-      <c r="H94" s="44"/>
-      <c r="I94" s="44"/>
-      <c r="J94" s="44"/>
-      <c r="K94" s="44"/>
-      <c r="L94" s="44"/>
-      <c r="M94" s="44"/>
-      <c r="N94" s="44"/>
-      <c r="O94" s="44"/>
-      <c r="P94" s="44"/>
-      <c r="Q94" s="44"/>
-      <c r="R94" s="44"/>
-      <c r="S94" s="44"/>
-      <c r="T94" s="44"/>
-      <c r="U94" s="44"/>
-      <c r="V94" s="44"/>
-      <c r="W94" s="44"/>
-      <c r="X94" s="44"/>
-      <c r="Y94" s="44"/>
-      <c r="Z94" s="44"/>
-      <c r="AA94" s="44"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="45"/>
+      <c r="I94" s="45"/>
+      <c r="J94" s="45"/>
+      <c r="K94" s="45"/>
+      <c r="L94" s="45"/>
+      <c r="M94" s="45"/>
+      <c r="N94" s="45"/>
+      <c r="O94" s="45"/>
+      <c r="P94" s="45"/>
+      <c r="Q94" s="45"/>
+      <c r="R94" s="45"/>
+      <c r="S94" s="45"/>
+      <c r="T94" s="45"/>
+      <c r="U94" s="45"/>
+      <c r="V94" s="45"/>
+      <c r="W94" s="45"/>
+      <c r="X94" s="45"/>
+      <c r="Y94" s="45"/>
+      <c r="Z94" s="45"/>
+      <c r="AA94" s="45"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="35" t="str">
+      <c r="A95" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B95" s="51"/>
-      <c r="C95" s="51"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="52"/>
       <c r="D95" s="27"/>
       <c r="E95" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F95" s="38" t="str">
+      <c r="F95" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G95" s="50"/>
-      <c r="H95" s="44"/>
-      <c r="I95" s="44"/>
-      <c r="J95" s="44"/>
-      <c r="K95" s="44"/>
-      <c r="L95" s="44"/>
-      <c r="M95" s="44"/>
-      <c r="N95" s="44"/>
-      <c r="O95" s="44"/>
-      <c r="P95" s="44"/>
-      <c r="Q95" s="44"/>
-      <c r="R95" s="44"/>
-      <c r="S95" s="44"/>
-      <c r="T95" s="44"/>
-      <c r="U95" s="44"/>
-      <c r="V95" s="44"/>
-      <c r="W95" s="44"/>
-      <c r="X95" s="44"/>
-      <c r="Y95" s="44"/>
-      <c r="Z95" s="44"/>
-      <c r="AA95" s="44"/>
+      <c r="G95" s="51"/>
+      <c r="H95" s="45"/>
+      <c r="I95" s="45"/>
+      <c r="J95" s="45"/>
+      <c r="K95" s="45"/>
+      <c r="L95" s="45"/>
+      <c r="M95" s="45"/>
+      <c r="N95" s="45"/>
+      <c r="O95" s="45"/>
+      <c r="P95" s="45"/>
+      <c r="Q95" s="45"/>
+      <c r="R95" s="45"/>
+      <c r="S95" s="45"/>
+      <c r="T95" s="45"/>
+      <c r="U95" s="45"/>
+      <c r="V95" s="45"/>
+      <c r="W95" s="45"/>
+      <c r="X95" s="45"/>
+      <c r="Y95" s="45"/>
+      <c r="Z95" s="45"/>
+      <c r="AA95" s="45"/>
     </row>
     <row r="96" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
@@ -8396,6 +8855,9 @@
     <mergeCell ref="D5:E5"/>
   </mergeCells>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T7:V82">
+      <formula1>"A,P"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:S82">
       <formula1>"A,P"</formula1>
     </dataValidation>

--- a/attendance-files/FA-II/FA-II (C) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (C) Attendance Sheet.xlsx
@@ -2713,11 +2713,11 @@
       </c>
       <c r="E20" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G20" s="38" t="s">
         <v>20</v>
@@ -2726,10 +2726,10 @@
         <v>20</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J20" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K20" s="40" t="s">
         <v>21</v>
@@ -2738,19 +2738,19 @@
         <v>21</v>
       </c>
       <c r="M20" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N20" s="40" t="s">
         <v>21</v>
       </c>
       <c r="O20" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P20" s="40" t="s">
         <v>21</v>
       </c>
       <c r="Q20" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R20" s="40" t="s">
         <v>21</v>
@@ -2953,11 +2953,11 @@
       </c>
       <c r="E23" s="27">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G23" s="38" t="s">
         <v>20</v>
@@ -2981,13 +2981,13 @@
         <v>20</v>
       </c>
       <c r="N23" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O23" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P23" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="40" t="s">
         <v>21</v>
@@ -3193,20 +3193,20 @@
       </c>
       <c r="E26" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J26" s="39" t="s">
         <v>20</v>
@@ -3215,7 +3215,7 @@
         <v>21</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M26" s="40" t="s">
         <v>21</v>
@@ -3224,7 +3224,7 @@
         <v>21</v>
       </c>
       <c r="O26" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P26" s="40" t="s">
         <v>21</v>
@@ -3913,11 +3913,11 @@
       </c>
       <c r="E35" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35" s="38" t="s">
         <v>20</v>
@@ -3950,7 +3950,7 @@
         <v>21</v>
       </c>
       <c r="Q35" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R35" s="39" t="s">
         <v>20</v>
